--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J212"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8502,6 +8502,196 @@
         <v>14.54</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Tofas</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>63</v>
+      </c>
+      <c r="F213" t="n">
+        <v>95</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>G. Dusseldorf</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Bremerhaven</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>75</v>
+      </c>
+      <c r="F214" t="n">
+        <v>86</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>111</v>
+      </c>
+      <c r="F215" t="n">
+        <v>112</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Al Sadd</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Al Gharafa</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>96</v>
+      </c>
+      <c r="F216" t="n">
+        <v>98</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>77</v>
+      </c>
+      <c r="F217" t="n">
+        <v>86</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>9.540000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8692,6 +8692,424 @@
         <v>9.540000000000003</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Bisons Loimaa</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Kobrat</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>76</v>
+      </c>
+      <c r="F218" t="n">
+        <v>88</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>8.540000000000003</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Tortona</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>70</v>
+      </c>
+      <c r="F219" t="n">
+        <v>71</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>7.540000000000003</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Montana State</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Oral Roberts</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>76</v>
+      </c>
+      <c r="F220" t="n">
+        <v>82</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>6.540000000000003</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Sacramento State</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>UMKC</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>67</v>
+      </c>
+      <c r="F221" t="n">
+        <v>64</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J221" t="n">
+        <v>7.270000000000003</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Northern Arizona</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>81</v>
+      </c>
+      <c r="F222" t="n">
+        <v>55</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J222" t="n">
+        <v>7.910000000000003</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Lehigh</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>75</v>
+      </c>
+      <c r="F223" t="n">
+        <v>66</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J223" t="n">
+        <v>8.640000000000002</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>PS Karlsruhe</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Phoenix Hagen</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>71</v>
+      </c>
+      <c r="F224" t="n">
+        <v>79</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>7.640000000000002</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>93</v>
+      </c>
+      <c r="F225" t="n">
+        <v>105</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>6.640000000000002</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>111</v>
+      </c>
+      <c r="F226" t="n">
+        <v>116</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>5.640000000000002</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Kataja</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Karhu Basket</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>78</v>
+      </c>
+      <c r="F227" t="n">
+        <v>73</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J227" t="n">
+        <v>6.980000000000002</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>53</v>
+      </c>
+      <c r="F228" t="n">
+        <v>59</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>5.980000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9110,6 +9110,120 @@
         <v>5.980000000000002</v>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Southern Miss</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Georgia State</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>79</v>
+      </c>
+      <c r="F229" t="n">
+        <v>73</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J229" t="n">
+        <v>6.620000000000002</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Silute</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Vilniaus Stekas</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>58</v>
+      </c>
+      <c r="F230" t="n">
+        <v>79</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>5.620000000000002</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Drexel</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>NC Wilmington</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>78</v>
+      </c>
+      <c r="F231" t="n">
+        <v>63</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J231" t="n">
+        <v>6.310000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9224,6 +9224,272 @@
         <v>6.310000000000002</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>KTE-Duna</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>DEAC</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>84</v>
+      </c>
+      <c r="F232" t="n">
+        <v>90</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>5.310000000000002</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Mt. St. Marys</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Canisius</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>74</v>
+      </c>
+      <c r="F233" t="n">
+        <v>69</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J233" t="n">
+        <v>6.000000000000002</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Manhattan</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Niagara</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>67</v>
+      </c>
+      <c r="F234" t="n">
+        <v>81</v>
+      </c>
+      <c r="G234" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>5.000000000000002</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Tamis</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Radnicki</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>79</v>
+      </c>
+      <c r="F235" t="n">
+        <v>81</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>4.000000000000002</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rain Or Shine Paint.</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>TNT Tropang Giga</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>119</v>
+      </c>
+      <c r="F236" t="n">
+        <v>112</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J236" t="n">
+        <v>4.750000000000002</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Adelaide Lightning F</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Sydney F</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>74</v>
+      </c>
+      <c r="F237" t="n">
+        <v>67</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J237" t="n">
+        <v>5.830000000000002</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>UC Riverside</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>UC Davis</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>63</v>
+      </c>
+      <c r="F238" t="n">
+        <v>83</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>4.830000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J238"/>
+  <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9490,6 +9490,652 @@
         <v>4.830000000000002</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Kaohsiung Aquas</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Taoyuan Leopards</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>99</v>
+      </c>
+      <c r="F239" t="n">
+        <v>103</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3.830000000000002</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>St. Francis (PA)</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>71</v>
+      </c>
+      <c r="F240" t="n">
+        <v>56</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J240" t="n">
+        <v>4.460000000000002</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Ovarense</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Vitória SC</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>91</v>
+      </c>
+      <c r="F241" t="n">
+        <v>90</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J241" t="n">
+        <v>5.040000000000002</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Spojnia Stargard</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Czarni Slupsk</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>77</v>
+      </c>
+      <c r="F242" t="n">
+        <v>65</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J242" t="n">
+        <v>5.660000000000002</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Eastern Kentucky</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Austin Peay</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>69</v>
+      </c>
+      <c r="F243" t="n">
+        <v>59</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J243" t="n">
+        <v>6.210000000000002</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Southern Indiana</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Tennessee Tech</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>59</v>
+      </c>
+      <c r="F244" t="n">
+        <v>73</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>5.210000000000002</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Louisiana Monroe</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Georgia Southern</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>68</v>
+      </c>
+      <c r="F245" t="n">
+        <v>76</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>4.210000000000002</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Hopsi Polzela</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>81</v>
+      </c>
+      <c r="F246" t="n">
+        <v>103</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>3.210000000000002</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Treviso</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Varese</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>96</v>
+      </c>
+      <c r="F247" t="n">
+        <v>101</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>2.210000000000002</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Bauru</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>89</v>
+      </c>
+      <c r="F248" t="n">
+        <v>93</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1.210000000000002</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Sangalhos</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Vasco Da Gama</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>91</v>
+      </c>
+      <c r="F249" t="n">
+        <v>87</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1.750000000000002</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>113</v>
+      </c>
+      <c r="F250" t="n">
+        <v>127</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.7500000000000018</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Akita</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>82</v>
+      </c>
+      <c r="F251" t="n">
+        <v>68</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.290000000000002</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>St. Bonaventure</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>65</v>
+      </c>
+      <c r="F252" t="n">
+        <v>54</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J252" t="n">
+        <v>2.200000000000002</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Wake Forest</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>86</v>
+      </c>
+      <c r="F253" t="n">
+        <v>82</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J253" t="n">
+        <v>2.750000000000002</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Spotter Leuven</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>68</v>
+      </c>
+      <c r="F254" t="n">
+        <v>90</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1.750000000000002</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Western Kentucky</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Liberty</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>70</v>
+      </c>
+      <c r="F255" t="n">
+        <v>68</v>
+      </c>
+      <c r="G255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2.850000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10136,6 +10136,120 @@
         <v>2.850000000000002</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Northern Iowa</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Indiana State</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>66</v>
+      </c>
+      <c r="F256" t="n">
+        <v>77</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1.850000000000002</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>118</v>
+      </c>
+      <c r="F257" t="n">
+        <v>133</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.8500000000000019</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>115</v>
+      </c>
+      <c r="F258" t="n">
+        <v>108</v>
+      </c>
+      <c r="G258" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J258" t="n">
+        <v>2.160000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J258"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10250,6 +10250,120 @@
         <v>2.160000000000002</v>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Borac</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Mega Basket</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>78</v>
+      </c>
+      <c r="F259" t="n">
+        <v>94</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1.160000000000002</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Independiente de Oliva</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Obras</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>100</v>
+      </c>
+      <c r="F260" t="n">
+        <v>101</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.1600000000000019</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>TX A&amp;M Commerce</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>88</v>
+      </c>
+      <c r="F261" t="n">
+        <v>85</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1.030000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J261"/>
+  <dimension ref="A1:J263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10364,6 +10364,82 @@
         <v>1.030000000000002</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Buffalo</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Miami (Ohio)</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>65</v>
+      </c>
+      <c r="F262" t="n">
+        <v>86</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.03000000000000203</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Mobis Phoebus</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>91</v>
+      </c>
+      <c r="F263" t="n">
+        <v>86</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.5700000000000021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J263"/>
+  <dimension ref="A1:J268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10440,6 +10440,196 @@
         <v>0.5700000000000021</v>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Missouri State</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Murray State</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>53</v>
+      </c>
+      <c r="F264" t="n">
+        <v>77</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>-0.4299999999999979</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Fairleigh Dickinson</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Chicago St</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>74</v>
+      </c>
+      <c r="F265" t="n">
+        <v>75</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>-1.429999999999998</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>JL Bourg</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>78</v>
+      </c>
+      <c r="F266" t="n">
+        <v>74</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.1000000000000021</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Gottingen</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>81</v>
+      </c>
+      <c r="F267" t="n">
+        <v>87</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>-0.8999999999999979</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Youngstown State</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>IPFW</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>93</v>
+      </c>
+      <c r="F268" t="n">
+        <v>85</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J268" t="n">
+        <v>-0.209999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J268"/>
+  <dimension ref="A1:J276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10630,6 +10630,310 @@
         <v>-0.209999999999998</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>North Alabama</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Bellarmine</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>69</v>
+      </c>
+      <c r="F269" t="n">
+        <v>53</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.3400000000000021</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Louisiana Monroe</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Southern Miss</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>58</v>
+      </c>
+      <c r="F270" t="n">
+        <v>71</v>
+      </c>
+      <c r="G270" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>-0.6599999999999979</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Grindavik</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Alftanes</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>87</v>
+      </c>
+      <c r="F271" t="n">
+        <v>84</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.3700000000000021</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Bigua</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>96</v>
+      </c>
+      <c r="F272" t="n">
+        <v>86</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1.070000000000002</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>North Dakota</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>79</v>
+      </c>
+      <c r="F273" t="n">
+        <v>61</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1.760000000000002</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>111</v>
+      </c>
+      <c r="F274" t="n">
+        <v>102</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2.450000000000002</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>William &amp; Mary</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>61</v>
+      </c>
+      <c r="F275" t="n">
+        <v>73</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1.450000000000002</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Alabama A&amp;M</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Alcorn State</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>71</v>
+      </c>
+      <c r="F276" t="n">
+        <v>74</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.450000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J276"/>
+  <dimension ref="A1:J282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10934,6 +10934,234 @@
         <v>0.450000000000002</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>HBA-Marsky Helsinki F</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Pyrinto F</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>78</v>
+      </c>
+      <c r="F277" t="n">
+        <v>82</v>
+      </c>
+      <c r="G277" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>-0.549999999999998</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>94</v>
+      </c>
+      <c r="F278" t="n">
+        <v>76</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1.998401444325282e-15</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Urla Bld F</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Mersin Gelisim F</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>84</v>
+      </c>
+      <c r="F279" t="n">
+        <v>75</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.790000000000002</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Southside F</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Sydney F</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>79</v>
+      </c>
+      <c r="F280" t="n">
+        <v>73</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1.360000000000002</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Split</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Cedevita Olimpija</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>93</v>
+      </c>
+      <c r="F281" t="n">
+        <v>85</v>
+      </c>
+      <c r="G281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J281" t="n">
+        <v>2.560000000000002</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Gipuzkoa</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>83</v>
+      </c>
+      <c r="F282" t="n">
+        <v>85</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1.560000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J282"/>
+  <dimension ref="A1:J291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11162,6 +11162,348 @@
         <v>1.560000000000002</v>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>89</v>
+      </c>
+      <c r="F283" t="n">
+        <v>85</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J283" t="n">
+        <v>2.780000000000002</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Chattanooga Mocs</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>NC Greensboro</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>54</v>
+      </c>
+      <c r="F284" t="n">
+        <v>70</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1.780000000000002</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>North Dakota St.</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>96</v>
+      </c>
+      <c r="F285" t="n">
+        <v>92</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J285" t="n">
+        <v>2.580000000000002</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Montana State</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Northern Colorado</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>90</v>
+      </c>
+      <c r="F286" t="n">
+        <v>81</v>
+      </c>
+      <c r="G286" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J286" t="n">
+        <v>3.760000000000002</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>95</v>
+      </c>
+      <c r="F287" t="n">
+        <v>75</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J287" t="n">
+        <v>4.320000000000002</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Louisiana Monroe</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>54</v>
+      </c>
+      <c r="F288" t="n">
+        <v>67</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>3.320000000000002</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>GKK Sibenka</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Dubrovnik</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>77</v>
+      </c>
+      <c r="F289" t="n">
+        <v>88</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>2.320000000000002</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Cedevita</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>96</v>
+      </c>
+      <c r="F290" t="n">
+        <v>91</v>
+      </c>
+      <c r="G290" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J290" t="n">
+        <v>3.020000000000002</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Cremona</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>99</v>
+      </c>
+      <c r="F291" t="n">
+        <v>80</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J291" t="n">
+        <v>3.730000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J291"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11504,6 +11504,348 @@
         <v>3.730000000000002</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Maccabi Ironi Ramat Gan</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Hapoel Tel-Aviv</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>80</v>
+      </c>
+      <c r="F292" t="n">
+        <v>93</v>
+      </c>
+      <c r="G292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>2.730000000000002</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Kapakli Spor</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Cayirova</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>102</v>
+      </c>
+      <c r="F293" t="n">
+        <v>91</v>
+      </c>
+      <c r="G293" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J293" t="n">
+        <v>3.950000000000002</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Scafati</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>102</v>
+      </c>
+      <c r="F294" t="n">
+        <v>76</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J294" t="n">
+        <v>4.840000000000002</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>109</v>
+      </c>
+      <c r="F295" t="n">
+        <v>105</v>
+      </c>
+      <c r="G295" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J295" t="n">
+        <v>6.020000000000001</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Syntainics MBC</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Tubingen</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>114</v>
+      </c>
+      <c r="F296" t="n">
+        <v>78</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J296" t="n">
+        <v>6.620000000000001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Wisc. Green Bay</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Cleveland State</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>79</v>
+      </c>
+      <c r="F297" t="n">
+        <v>71</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J297" t="n">
+        <v>7.490000000000001</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>BK Liepaja</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Tartu Ulikool</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>78</v>
+      </c>
+      <c r="F298" t="n">
+        <v>84</v>
+      </c>
+      <c r="G298" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>6.490000000000001</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Jairis F</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Ferrol F</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>75</v>
+      </c>
+      <c r="F299" t="n">
+        <v>73</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J299" t="n">
+        <v>7.190000000000001</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>85</v>
+      </c>
+      <c r="F300" t="n">
+        <v>76</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J300" t="n">
+        <v>7.990000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J300"/>
+  <dimension ref="A1:J302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11846,6 +11846,82 @@
         <v>7.990000000000001</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>N. Carolina A&amp;T</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>80</v>
+      </c>
+      <c r="F301" t="n">
+        <v>81</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>6.990000000000001</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>George Washington</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>George Mason</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>75</v>
+      </c>
+      <c r="F302" t="n">
+        <v>62</v>
+      </c>
+      <c r="G302" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J302" t="n">
+        <v>8.170000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J302"/>
+  <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11922,6 +11922,82 @@
         <v>8.170000000000002</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>119</v>
+      </c>
+      <c r="F303" t="n">
+        <v>117</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J303" t="n">
+        <v>8.740000000000002</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Cincinnati</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>81</v>
+      </c>
+      <c r="F304" t="n">
+        <v>77</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J304" t="n">
+        <v>9.410000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J304"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11998,6 +11998,386 @@
         <v>9.410000000000002</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Sun Rockers Shibuya</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Brave Thunders</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>79</v>
+      </c>
+      <c r="F305" t="n">
+        <v>78</v>
+      </c>
+      <c r="G305" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J305" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Lyon F</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Schio F</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>83</v>
+      </c>
+      <c r="F306" t="n">
+        <v>90</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>9.020000000000001</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>TAL TECH</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Rigas Zelli</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>72</v>
+      </c>
+      <c r="F307" t="n">
+        <v>89</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>8.020000000000001</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>BC Timisoara</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>77</v>
+      </c>
+      <c r="F308" t="n">
+        <v>107</v>
+      </c>
+      <c r="G308" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>7.020000000000001</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Wofford</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>East Tennessee St</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>75</v>
+      </c>
+      <c r="F309" t="n">
+        <v>73</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J309" t="n">
+        <v>7.570000000000001</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>106</v>
+      </c>
+      <c r="F310" t="n">
+        <v>104</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J310" t="n">
+        <v>8.260000000000002</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>109</v>
+      </c>
+      <c r="F311" t="n">
+        <v>94</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J311" t="n">
+        <v>8.840000000000002</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>BC Komarno</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>86</v>
+      </c>
+      <c r="F312" t="n">
+        <v>71</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J312" t="n">
+        <v>9.830000000000002</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>La Lafayette</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>68</v>
+      </c>
+      <c r="F313" t="n">
+        <v>86</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J313" t="n">
+        <v>8.830000000000002</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Boston University</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Bucknell</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>57</v>
+      </c>
+      <c r="F314" t="n">
+        <v>73</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J314" t="n">
+        <v>7.830000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J314"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12378,6 +12378,158 @@
         <v>7.830000000000002</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Mayrouba</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Champville</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>74</v>
+      </c>
+      <c r="F315" t="n">
+        <v>92</v>
+      </c>
+      <c r="G315" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>6.830000000000002</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>KoGas</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Suwon KT</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>80</v>
+      </c>
+      <c r="F316" t="n">
+        <v>69</v>
+      </c>
+      <c r="G316" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J316" t="n">
+        <v>8.620000000000001</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Zhejiang Chouzhou</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>123</v>
+      </c>
+      <c r="F317" t="n">
+        <v>113</v>
+      </c>
+      <c r="G317" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J317" t="n">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Mogi</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Corinthians Paulista</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>70</v>
+      </c>
+      <c r="F318" t="n">
+        <v>77</v>
+      </c>
+      <c r="G318" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J318" t="n">
+        <v>9.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J318"/>
+  <dimension ref="A1:J324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12530,6 +12530,234 @@
         <v>9.32</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>St. Francis (PA)</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>LIU Sharks</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>72</v>
+      </c>
+      <c r="F319" t="n">
+        <v>66</v>
+      </c>
+      <c r="G319" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J319" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Al-Rayyan</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Al Shamal</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>99</v>
+      </c>
+      <c r="F320" t="n">
+        <v>79</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J320" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Tasmania JackJumpers</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Melbourne United</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>107</v>
+      </c>
+      <c r="F321" t="n">
+        <v>86</v>
+      </c>
+      <c r="G321" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J321" t="n">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>109</v>
+      </c>
+      <c r="F322" t="n">
+        <v>123</v>
+      </c>
+      <c r="G322" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>106</v>
+      </c>
+      <c r="F323" t="n">
+        <v>118</v>
+      </c>
+      <c r="G323" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>9.670000000000002</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Washington State</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>75</v>
+      </c>
+      <c r="F324" t="n">
+        <v>89</v>
+      </c>
+      <c r="G324" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>8.670000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J324"/>
+  <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12758,6 +12758,614 @@
         <v>8.670000000000002</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Hsinchu Jko Lioneers</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Fubon Braves</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>77</v>
+      </c>
+      <c r="F325" t="n">
+        <v>72</v>
+      </c>
+      <c r="G325" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J325" t="n">
+        <v>9.920000000000002</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>HydroTruck Radom</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>MKKS Koszalin</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>93</v>
+      </c>
+      <c r="F326" t="n">
+        <v>90</v>
+      </c>
+      <c r="G326" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J326" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Lafayette</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Bucknell</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>75</v>
+      </c>
+      <c r="F327" t="n">
+        <v>72</v>
+      </c>
+      <c r="G327" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J327" t="n">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>South Alabama</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>La Lafayette</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>79</v>
+      </c>
+      <c r="F328" t="n">
+        <v>88</v>
+      </c>
+      <c r="G328" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Coppin State</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Morgan State</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>86</v>
+      </c>
+      <c r="F329" t="n">
+        <v>89</v>
+      </c>
+      <c r="G329" t="n">
+        <v>2</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J329" t="n">
+        <v>9.270000000000001</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Alkar</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Zabok</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>80</v>
+      </c>
+      <c r="F330" t="n">
+        <v>95</v>
+      </c>
+      <c r="G330" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J330" t="n">
+        <v>8.270000000000001</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Celta F</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Cadi La Seu F</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>79</v>
+      </c>
+      <c r="F331" t="n">
+        <v>68</v>
+      </c>
+      <c r="G331" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J331" t="n">
+        <v>9.490000000000002</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Beijing Royal Fighters</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>113</v>
+      </c>
+      <c r="F332" t="n">
+        <v>97</v>
+      </c>
+      <c r="G332" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J332" t="n">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>97</v>
+      </c>
+      <c r="F333" t="n">
+        <v>102</v>
+      </c>
+      <c r="G333" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>9.230000000000002</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Zhejiang Chouzhou</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>109</v>
+      </c>
+      <c r="F334" t="n">
+        <v>108</v>
+      </c>
+      <c r="G334" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J334" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Arizona State</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>82</v>
+      </c>
+      <c r="F335" t="n">
+        <v>67</v>
+      </c>
+      <c r="G335" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J335" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Lefkadas</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Eleftheroupoli</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>79</v>
+      </c>
+      <c r="F336" t="n">
+        <v>70</v>
+      </c>
+      <c r="G336" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J336" t="n">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Rapla</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Keila</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>86</v>
+      </c>
+      <c r="F337" t="n">
+        <v>94</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Georgia Southern</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Georgia State</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>86</v>
+      </c>
+      <c r="F338" t="n">
+        <v>70</v>
+      </c>
+      <c r="G338" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J338" t="n">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Washington State</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>81</v>
+      </c>
+      <c r="F339" t="n">
+        <v>75</v>
+      </c>
+      <c r="G339" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J339" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>64</v>
+      </c>
+      <c r="F340" t="n">
+        <v>69</v>
+      </c>
+      <c r="G340" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>12.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J340"/>
+  <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13366,6 +13366,272 @@
         <v>12.44</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Shizuoka</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Nara</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>75</v>
+      </c>
+      <c r="F341" t="n">
+        <v>71</v>
+      </c>
+      <c r="G341" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J341" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Sassari F</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>San Giovanni F</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>61</v>
+      </c>
+      <c r="F342" t="n">
+        <v>81</v>
+      </c>
+      <c r="G342" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Hsinchu Jko Lioneers</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Taoyuan Pauian Pilots</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>72</v>
+      </c>
+      <c r="F343" t="n">
+        <v>83</v>
+      </c>
+      <c r="G343" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J343" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Sydney Kings</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Perth Wildcats</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>98</v>
+      </c>
+      <c r="F344" t="n">
+        <v>104</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J344" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Ludwigsburg</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>77</v>
+      </c>
+      <c r="F345" t="n">
+        <v>74</v>
+      </c>
+      <c r="G345" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J345" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Sacred Heart</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>66</v>
+      </c>
+      <c r="F346" t="n">
+        <v>61</v>
+      </c>
+      <c r="G346" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J346" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>St. Peters</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Canisius</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>70</v>
+      </c>
+      <c r="F347" t="n">
+        <v>59</v>
+      </c>
+      <c r="G347" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J347" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J347"/>
+  <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13632,6 +13632,1792 @@
         <v>11.75</v>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Gilboa Galil</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Ramat Hasharon</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>94</v>
+      </c>
+      <c r="F348" t="n">
+        <v>71</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J348" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Georgia Tech</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>64</v>
+      </c>
+      <c r="F349" t="n">
+        <v>72</v>
+      </c>
+      <c r="G349" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J349" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>BK Liepaja</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Ventspils</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>70</v>
+      </c>
+      <c r="F350" t="n">
+        <v>90</v>
+      </c>
+      <c r="G350" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J350" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Landes F</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>ESB Villeneuve F</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>80</v>
+      </c>
+      <c r="F351" t="n">
+        <v>71</v>
+      </c>
+      <c r="G351" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J351" t="n">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Ginebra Kings</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>San Miguel Beermen</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>92</v>
+      </c>
+      <c r="F352" t="n">
+        <v>90</v>
+      </c>
+      <c r="G352" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J352" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Fenerbahce 2 F</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Bursa Antspor F</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>79</v>
+      </c>
+      <c r="F353" t="n">
+        <v>66</v>
+      </c>
+      <c r="G353" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J353" t="n">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Urla Bld F</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Emlak Konut Gelisim 2 F</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>72</v>
+      </c>
+      <c r="F354" t="n">
+        <v>61</v>
+      </c>
+      <c r="G354" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J354" t="n">
+        <v>15.34000000000001</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>119</v>
+      </c>
+      <c r="F355" t="n">
+        <v>123</v>
+      </c>
+      <c r="G355" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J355" t="n">
+        <v>14.34000000000001</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Citadel</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Mercer</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>68</v>
+      </c>
+      <c r="F356" t="n">
+        <v>66</v>
+      </c>
+      <c r="G356" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J356" t="n">
+        <v>15.07000000000001</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Eastern Illinois</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Tennessee Tech</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>68</v>
+      </c>
+      <c r="F357" t="n">
+        <v>59</v>
+      </c>
+      <c r="G357" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J357" t="n">
+        <v>15.65000000000001</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Grindavik</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>84</v>
+      </c>
+      <c r="F358" t="n">
+        <v>106</v>
+      </c>
+      <c r="G358" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J358" t="n">
+        <v>14.65000000000001</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Kretinga</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Silute</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>84</v>
+      </c>
+      <c r="F359" t="n">
+        <v>83</v>
+      </c>
+      <c r="G359" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J359" t="n">
+        <v>15.25000000000001</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Klaipedos Neptunas</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Delikatesas Joniskis</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>74</v>
+      </c>
+      <c r="F360" t="n">
+        <v>89</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>14.25000000000001</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Vilkaviskis</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Vytis VDU</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>94</v>
+      </c>
+      <c r="F361" t="n">
+        <v>73</v>
+      </c>
+      <c r="G361" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J361" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Tindastoll</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>90</v>
+      </c>
+      <c r="F362" t="n">
+        <v>79</v>
+      </c>
+      <c r="G362" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J362" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Sydney F</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Southside F</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>102</v>
+      </c>
+      <c r="F363" t="n">
+        <v>81</v>
+      </c>
+      <c r="G363" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J363" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Cedevita</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Cibona</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>70</v>
+      </c>
+      <c r="F364" t="n">
+        <v>82</v>
+      </c>
+      <c r="G364" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J364" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>81</v>
+      </c>
+      <c r="F365" t="n">
+        <v>73</v>
+      </c>
+      <c r="G365" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J365" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>78</v>
+      </c>
+      <c r="F366" t="n">
+        <v>68</v>
+      </c>
+      <c r="G366" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J366" t="n">
+        <v>17.72000000000001</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Chalons-Reims</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>79</v>
+      </c>
+      <c r="F367" t="n">
+        <v>80</v>
+      </c>
+      <c r="G367" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J367" t="n">
+        <v>16.72000000000001</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>San Miguel Beermen</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Ginebra Kings</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>106</v>
+      </c>
+      <c r="F368" t="n">
+        <v>96</v>
+      </c>
+      <c r="G368" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J368" t="n">
+        <v>17.74000000000001</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>NZ Breakers</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Tasmania JackJumpers</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>94</v>
+      </c>
+      <c r="F369" t="n">
+        <v>88</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J369" t="n">
+        <v>18.41000000000001</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Liege</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Spirou Charleroi</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>83</v>
+      </c>
+      <c r="F370" t="n">
+        <v>92</v>
+      </c>
+      <c r="G370" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J370" t="n">
+        <v>17.41000000000001</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>St. Bonaventure</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Saint Josephs</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>91</v>
+      </c>
+      <c r="F371" t="n">
+        <v>72</v>
+      </c>
+      <c r="G371" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J371" t="n">
+        <v>18.05000000000001</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Sloga Pozega F</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>ZKK Kraljevo F</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>64</v>
+      </c>
+      <c r="F372" t="n">
+        <v>65</v>
+      </c>
+      <c r="G372" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J372" t="n">
+        <v>17.05000000000001</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Vytis VDU</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Jurbarkas</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>96</v>
+      </c>
+      <c r="F373" t="n">
+        <v>103</v>
+      </c>
+      <c r="G373" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J373" t="n">
+        <v>16.05000000000001</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw F</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Arka Gdynia F</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>42</v>
+      </c>
+      <c r="F374" t="n">
+        <v>83</v>
+      </c>
+      <c r="G374" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J374" t="n">
+        <v>15.05000000000001</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Polonia Warszawa</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>83</v>
+      </c>
+      <c r="F375" t="n">
+        <v>99</v>
+      </c>
+      <c r="G375" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J375" t="n">
+        <v>14.05000000000001</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Incarnate Word</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Houston Christian</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>79</v>
+      </c>
+      <c r="F376" t="n">
+        <v>75</v>
+      </c>
+      <c r="G376" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J376" t="n">
+        <v>14.60000000000001</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Middle Tenn. St.</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Florida Intl</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>79</v>
+      </c>
+      <c r="F377" t="n">
+        <v>61</v>
+      </c>
+      <c r="G377" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J377" t="n">
+        <v>15.33000000000001</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Austin Peay</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>73</v>
+      </c>
+      <c r="F378" t="n">
+        <v>67</v>
+      </c>
+      <c r="G378" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J378" t="n">
+        <v>16.09000000000001</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Bellarmine</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>69</v>
+      </c>
+      <c r="F379" t="n">
+        <v>63</v>
+      </c>
+      <c r="G379" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J379" t="n">
+        <v>16.76000000000001</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Lipscomb</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>80</v>
+      </c>
+      <c r="F380" t="n">
+        <v>59</v>
+      </c>
+      <c r="G380" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J380" t="n">
+        <v>17.86000000000001</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>LTH Castings</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>74</v>
+      </c>
+      <c r="F381" t="n">
+        <v>76</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J381" t="n">
+        <v>16.86000000000001</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Shanxi Zhongyu</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>114</v>
+      </c>
+      <c r="F382" t="n">
+        <v>123</v>
+      </c>
+      <c r="G382" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J382" t="n">
+        <v>15.86000000000001</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Notre Dame</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Boston College</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>58</v>
+      </c>
+      <c r="F383" t="n">
+        <v>61</v>
+      </c>
+      <c r="G383" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J383" t="n">
+        <v>14.86000000000001</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>New Hampshire</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>79</v>
+      </c>
+      <c r="F384" t="n">
+        <v>86</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J384" t="n">
+        <v>13.86000000000001</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Bamberg</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>91</v>
+      </c>
+      <c r="F385" t="n">
+        <v>90</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I385" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J385" t="n">
+        <v>14.51000000000001</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>111</v>
+      </c>
+      <c r="F386" t="n">
+        <v>105</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I386" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J386" t="n">
+        <v>15.05000000000001</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Charnay Bourgogne Sud F</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Lattes Montpellier F</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>74</v>
+      </c>
+      <c r="F387" t="n">
+        <v>90</v>
+      </c>
+      <c r="G387" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I387" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J387" t="n">
+        <v>14.05000000000001</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Pyrinto Tampere</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>UU-Korihait</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>88</v>
+      </c>
+      <c r="F388" t="n">
+        <v>83</v>
+      </c>
+      <c r="G388" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J388" t="n">
+        <v>14.70000000000002</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>OSE Lions</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Szedeak</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>88</v>
+      </c>
+      <c r="F389" t="n">
+        <v>79</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J389" t="n">
+        <v>15.33000000000002</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Milon Aons</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Koroivos</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>80</v>
+      </c>
+      <c r="F390" t="n">
+        <v>79</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J390" t="n">
+        <v>15.93000000000002</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Boise State</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Utah State</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>84</v>
+      </c>
+      <c r="F391" t="n">
+        <v>90</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J391" t="n">
+        <v>14.93000000000002</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Mississippi St.</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Auburn</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>64</v>
+      </c>
+      <c r="F392" t="n">
+        <v>58</v>
+      </c>
+      <c r="G392" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J392" t="n">
+        <v>16.03000000000002</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>50</v>
+      </c>
+      <c r="F393" t="n">
+        <v>65</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J393" t="n">
+        <v>15.03000000000002</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Washington State</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>78</v>
+      </c>
+      <c r="F394" t="n">
+        <v>69</v>
+      </c>
+      <c r="G394" t="n">
+        <v>2</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>1</v>
+      </c>
+      <c r="J394" t="n">
+        <v>16.03000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J394"/>
+  <dimension ref="A1:J441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15418,6 +15418,1792 @@
         <v>16.03000000000002</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>San Giovanni F</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Ragusa F</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>70</v>
+      </c>
+      <c r="F395" t="n">
+        <v>66</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I395" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J395" t="n">
+        <v>16.68000000000001</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Lublin</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Dabrowa Gornicza</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>114</v>
+      </c>
+      <c r="F396" t="n">
+        <v>102</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J396" t="n">
+        <v>17.48000000000001</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>113</v>
+      </c>
+      <c r="F397" t="n">
+        <v>98</v>
+      </c>
+      <c r="G397" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J397" t="n">
+        <v>18.60000000000002</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Ginebra Kings</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>San Miguel Beermen</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>91</v>
+      </c>
+      <c r="F398" t="n">
+        <v>94</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J398" t="n">
+        <v>17.60000000000002</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Helsingin NMKY</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Huima</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>84</v>
+      </c>
+      <c r="F399" t="n">
+        <v>83</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J399" t="n">
+        <v>18.42000000000002</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Texas Southern</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Alabama State</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>56</v>
+      </c>
+      <c r="F400" t="n">
+        <v>55</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J400" t="n">
+        <v>19.00000000000001</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Md.-East. Shore</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>South Carolina St</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>53</v>
+      </c>
+      <c r="F401" t="n">
+        <v>63</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J401" t="n">
+        <v>18.00000000000001</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>147</v>
+      </c>
+      <c r="F402" t="n">
+        <v>114</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J402" t="n">
+        <v>18.93000000000001</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Argentino</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Zarate</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>65</v>
+      </c>
+      <c r="F403" t="n">
+        <v>60</v>
+      </c>
+      <c r="G403" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J403" t="n">
+        <v>20.11000000000001</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Central Michigan</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Northern Illinois</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>84</v>
+      </c>
+      <c r="F404" t="n">
+        <v>77</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J404" t="n">
+        <v>20.69000000000001</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>118</v>
+      </c>
+      <c r="F405" t="n">
+        <v>103</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J405" t="n">
+        <v>21.30000000000001</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Ramat Hasharon</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Ironi Nahariya</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>90</v>
+      </c>
+      <c r="F406" t="n">
+        <v>83</v>
+      </c>
+      <c r="G406" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J406" t="n">
+        <v>22.75000000000001</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Goyang Sono</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>LG Sakers</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>70</v>
+      </c>
+      <c r="F407" t="n">
+        <v>74</v>
+      </c>
+      <c r="G407" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J407" t="n">
+        <v>21.75000000000001</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Prometey</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>108</v>
+      </c>
+      <c r="F408" t="n">
+        <v>92</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I408" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J408" t="n">
+        <v>22.65000000000001</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>107</v>
+      </c>
+      <c r="F409" t="n">
+        <v>118</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I409" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J409" t="n">
+        <v>21.65000000000001</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Ball State</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Bowling Green</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>72</v>
+      </c>
+      <c r="F410" t="n">
+        <v>81</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I410" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J410" t="n">
+        <v>20.65000000000001</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Hapoel Holon</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>79</v>
+      </c>
+      <c r="F411" t="n">
+        <v>68</v>
+      </c>
+      <c r="G411" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I411" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J411" t="n">
+        <v>21.73000000000001</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Air Force</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>72</v>
+      </c>
+      <c r="F412" t="n">
+        <v>83</v>
+      </c>
+      <c r="G412" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J412" t="n">
+        <v>20.73000000000001</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Hokkaido</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Gunma</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>82</v>
+      </c>
+      <c r="F413" t="n">
+        <v>94</v>
+      </c>
+      <c r="G413" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I413" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J413" t="n">
+        <v>19.73000000000001</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Olimpico</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>95</v>
+      </c>
+      <c r="F414" t="n">
+        <v>76</v>
+      </c>
+      <c r="G414" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J414" t="n">
+        <v>21.32000000000001</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Handlova</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Spisski Rytieri</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>96</v>
+      </c>
+      <c r="F415" t="n">
+        <v>90</v>
+      </c>
+      <c r="G415" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I415" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J415" t="n">
+        <v>21.88000000000001</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Evansville</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Illinois (Chi.)</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>77</v>
+      </c>
+      <c r="F416" t="n">
+        <v>60</v>
+      </c>
+      <c r="G416" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J416" t="n">
+        <v>22.68000000000001</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>North Alabama</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>79</v>
+      </c>
+      <c r="F417" t="n">
+        <v>72</v>
+      </c>
+      <c r="G417" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J417" t="n">
+        <v>23.51000000000001</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>South Alabama</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>74</v>
+      </c>
+      <c r="F418" t="n">
+        <v>66</v>
+      </c>
+      <c r="G418" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J418" t="n">
+        <v>24.24000000000001</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Jacksonville St.</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>79</v>
+      </c>
+      <c r="F419" t="n">
+        <v>71</v>
+      </c>
+      <c r="G419" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J419" t="n">
+        <v>24.80000000000001</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Lindenwood</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Western Illinois</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>71</v>
+      </c>
+      <c r="F420" t="n">
+        <v>79</v>
+      </c>
+      <c r="G420" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J420" t="n">
+        <v>23.80000000000001</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Torun</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Spojnia Stargard</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>72</v>
+      </c>
+      <c r="F421" t="n">
+        <v>97</v>
+      </c>
+      <c r="G421" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J421" t="n">
+        <v>22.80000000000001</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Haukar</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Keflavik</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>93</v>
+      </c>
+      <c r="F422" t="n">
+        <v>104</v>
+      </c>
+      <c r="G422" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J422" t="n">
+        <v>21.80000000000001</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Grindavik</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Njardvik</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>118</v>
+      </c>
+      <c r="F423" t="n">
+        <v>80</v>
+      </c>
+      <c r="G423" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J423" t="n">
+        <v>22.34000000000001</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Cedevita</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>80</v>
+      </c>
+      <c r="F424" t="n">
+        <v>76</v>
+      </c>
+      <c r="G424" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J424" t="n">
+        <v>23.10000000000001</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Cairns Taipans</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Tasmania JackJumpers</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>86</v>
+      </c>
+      <c r="F425" t="n">
+        <v>94</v>
+      </c>
+      <c r="G425" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J425" t="n">
+        <v>22.10000000000001</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>67</v>
+      </c>
+      <c r="F426" t="n">
+        <v>69</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J426" t="n">
+        <v>21.10000000000001</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Lancut</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Dziki Warszawa</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>58</v>
+      </c>
+      <c r="F427" t="n">
+        <v>68</v>
+      </c>
+      <c r="G427" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J427" t="n">
+        <v>20.10000000000001</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Adelaide 36ers</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Sydney Kings</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>85</v>
+      </c>
+      <c r="F428" t="n">
+        <v>78</v>
+      </c>
+      <c r="G428" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I428" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J428" t="n">
+        <v>21.14000000000001</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>115</v>
+      </c>
+      <c r="F429" t="n">
+        <v>109</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J429" t="n">
+        <v>22.09000000000001</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>69</v>
+      </c>
+      <c r="F430" t="n">
+        <v>78</v>
+      </c>
+      <c r="G430" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I430" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J430" t="n">
+        <v>21.09000000000001</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Austin Peay</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>North Florida</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>95</v>
+      </c>
+      <c r="F431" t="n">
+        <v>91</v>
+      </c>
+      <c r="G431" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I431" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J431" t="n">
+        <v>21.92000000000001</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Southern Miss</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>60</v>
+      </c>
+      <c r="F432" t="n">
+        <v>55</v>
+      </c>
+      <c r="G432" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J432" t="n">
+        <v>22.68000000000001</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Lausanne Basket</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>94</v>
+      </c>
+      <c r="F433" t="n">
+        <v>96</v>
+      </c>
+      <c r="G433" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J433" t="n">
+        <v>21.68000000000001</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Le Portel</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>96</v>
+      </c>
+      <c r="F434" t="n">
+        <v>77</v>
+      </c>
+      <c r="G434" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J434" t="n">
+        <v>22.85000000000001</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Ragusa F</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Campobasso F</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>63</v>
+      </c>
+      <c r="F435" t="n">
+        <v>49</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I435" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J435" t="n">
+        <v>23.41000000000001</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Las Animas</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Espanol Osorno</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>70</v>
+      </c>
+      <c r="F436" t="n">
+        <v>84</v>
+      </c>
+      <c r="G436" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I436" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J436" t="n">
+        <v>22.41000000000001</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>67</v>
+      </c>
+      <c r="F437" t="n">
+        <v>66</v>
+      </c>
+      <c r="G437" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I437" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J437" t="n">
+        <v>23.10000000000001</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>South Carolina St</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Morgan State</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>70</v>
+      </c>
+      <c r="F438" t="n">
+        <v>72</v>
+      </c>
+      <c r="G438" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J438" t="n">
+        <v>22.10000000000001</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Virginia Tech</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>82</v>
+      </c>
+      <c r="F439" t="n">
+        <v>74</v>
+      </c>
+      <c r="G439" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I439" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J439" t="n">
+        <v>22.73000000000001</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>66</v>
+      </c>
+      <c r="F440" t="n">
+        <v>77</v>
+      </c>
+      <c r="G440" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I440" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J440" t="n">
+        <v>21.73000000000001</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Arizona State</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>66</v>
+      </c>
+      <c r="F441" t="n">
+        <v>81</v>
+      </c>
+      <c r="G441" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I441" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J441" t="n">
+        <v>20.73000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J441"/>
+  <dimension ref="A1:J499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17204,6 +17204,2210 @@
         <v>20.73000000000001</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Taipower F</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Chunghua Telecom F</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>61</v>
+      </c>
+      <c r="F442" t="n">
+        <v>71</v>
+      </c>
+      <c r="G442" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I442" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J442" t="n">
+        <v>19.73000000000001</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Cozum Ankara</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Istanbul Basket</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>80</v>
+      </c>
+      <c r="F443" t="n">
+        <v>89</v>
+      </c>
+      <c r="G443" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J443" t="n">
+        <v>18.73000000000001</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Galitos Aveiro</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Vasco Da Gama</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>104</v>
+      </c>
+      <c r="F444" t="n">
+        <v>77</v>
+      </c>
+      <c r="G444" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I444" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J444" t="n">
+        <v>19.60000000000001</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Galitos Barreiro</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>71</v>
+      </c>
+      <c r="F445" t="n">
+        <v>69</v>
+      </c>
+      <c r="G445" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I445" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J445" t="n">
+        <v>20.41000000000001</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>CSM Targu Mures</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>84</v>
+      </c>
+      <c r="F446" t="n">
+        <v>95</v>
+      </c>
+      <c r="G446" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J446" t="n">
+        <v>19.41000000000001</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>95</v>
+      </c>
+      <c r="F447" t="n">
+        <v>103</v>
+      </c>
+      <c r="G447" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I447" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J447" t="n">
+        <v>18.41000000000001</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Wurzburg</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>100</v>
+      </c>
+      <c r="F448" t="n">
+        <v>89</v>
+      </c>
+      <c r="G448" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I448" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J448" t="n">
+        <v>20.06000000000001</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Pelister</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>79</v>
+      </c>
+      <c r="F449" t="n">
+        <v>78</v>
+      </c>
+      <c r="G449" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I449" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J449" t="n">
+        <v>20.77000000000001</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Sacramento State</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>45</v>
+      </c>
+      <c r="F450" t="n">
+        <v>61</v>
+      </c>
+      <c r="G450" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I450" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J450" t="n">
+        <v>19.77000000000001</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Brasov</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>97</v>
+      </c>
+      <c r="F451" t="n">
+        <v>93</v>
+      </c>
+      <c r="G451" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I451" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J451" t="n">
+        <v>21.06000000000001</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Dabrowa Gornicza</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>91</v>
+      </c>
+      <c r="F452" t="n">
+        <v>104</v>
+      </c>
+      <c r="G452" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J452" t="n">
+        <v>20.06000000000001</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Ohod</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Al-Fateh</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>92</v>
+      </c>
+      <c r="F453" t="n">
+        <v>89</v>
+      </c>
+      <c r="G453" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I453" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J453" t="n">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Pato</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>São José</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>80</v>
+      </c>
+      <c r="F454" t="n">
+        <v>88</v>
+      </c>
+      <c r="G454" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I454" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J454" t="n">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Alabama A&amp;M</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Bethune Cookman</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>72</v>
+      </c>
+      <c r="F455" t="n">
+        <v>68</v>
+      </c>
+      <c r="G455" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I455" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J455" t="n">
+        <v>20.67000000000001</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>112</v>
+      </c>
+      <c r="F456" t="n">
+        <v>104</v>
+      </c>
+      <c r="G456" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I456" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J456" t="n">
+        <v>21.40000000000001</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Krka</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Studentski Centar</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>72</v>
+      </c>
+      <c r="F457" t="n">
+        <v>97</v>
+      </c>
+      <c r="G457" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I457" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J457" t="n">
+        <v>20.40000000000001</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Malvin</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>84</v>
+      </c>
+      <c r="F458" t="n">
+        <v>90</v>
+      </c>
+      <c r="G458" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I458" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J458" t="n">
+        <v>19.40000000000001</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Portland State</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>East. Washington</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>77</v>
+      </c>
+      <c r="F459" t="n">
+        <v>90</v>
+      </c>
+      <c r="G459" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I459" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J459" t="n">
+        <v>18.40000000000001</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>South Carolina</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Ole Miss</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>68</v>
+      </c>
+      <c r="F460" t="n">
+        <v>65</v>
+      </c>
+      <c r="G460" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I460" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J460" t="n">
+        <v>18.95000000000001</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>AR Little Rock</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Tenn. Martin</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>77</v>
+      </c>
+      <c r="F461" t="n">
+        <v>57</v>
+      </c>
+      <c r="G461" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I461" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J461" t="n">
+        <v>19.68000000000001</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Brave Thunders</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>75</v>
+      </c>
+      <c r="F462" t="n">
+        <v>87</v>
+      </c>
+      <c r="G462" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I462" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J462" t="n">
+        <v>18.68000000000001</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Rapid Bucuresti F</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Cluj Napoca F</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>61</v>
+      </c>
+      <c r="F463" t="n">
+        <v>87</v>
+      </c>
+      <c r="G463" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I463" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J463" t="n">
+        <v>17.68000000000001</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Kongsberg Miners</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Fyllingen</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>98</v>
+      </c>
+      <c r="F464" t="n">
+        <v>76</v>
+      </c>
+      <c r="G464" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J464" t="n">
+        <v>18.41000000000001</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>114</v>
+      </c>
+      <c r="F465" t="n">
+        <v>106</v>
+      </c>
+      <c r="G465" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I465" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J465" t="n">
+        <v>19.02000000000001</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>104</v>
+      </c>
+      <c r="F466" t="n">
+        <v>127</v>
+      </c>
+      <c r="G466" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I466" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J466" t="n">
+        <v>18.02000000000001</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Hapoel Tel-Aviv</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>73</v>
+      </c>
+      <c r="F467" t="n">
+        <v>94</v>
+      </c>
+      <c r="G467" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I467" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J467" t="n">
+        <v>17.02000000000001</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>East Tennessee St</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Wofford</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>57</v>
+      </c>
+      <c r="F468" t="n">
+        <v>50</v>
+      </c>
+      <c r="G468" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I468" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J468" t="n">
+        <v>17.66000000000001</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>IPFW</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Cleveland State</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>72</v>
+      </c>
+      <c r="F469" t="n">
+        <v>75</v>
+      </c>
+      <c r="G469" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I469" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J469" t="n">
+        <v>16.66000000000001</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Rytas 2</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Delikatesas Joniskis</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>82</v>
+      </c>
+      <c r="F470" t="n">
+        <v>99</v>
+      </c>
+      <c r="G470" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J470" t="n">
+        <v>15.66000000000001</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>LG Sakers</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>90</v>
+      </c>
+      <c r="F471" t="n">
+        <v>69</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I471" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J471" t="n">
+        <v>16.49000000000001</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>108</v>
+      </c>
+      <c r="F472" t="n">
+        <v>122</v>
+      </c>
+      <c r="G472" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I472" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J472" t="n">
+        <v>15.49000000000001</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>SE Missouri State</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Tennessee Tech</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>88</v>
+      </c>
+      <c r="F473" t="n">
+        <v>69</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I473" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J473" t="n">
+        <v>16.29000000000001</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Fukuoka</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Kumamoto</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>75</v>
+      </c>
+      <c r="F474" t="n">
+        <v>54</v>
+      </c>
+      <c r="G474" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I474" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J474" t="n">
+        <v>17.44</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Trouville</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Cordon</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>57</v>
+      </c>
+      <c r="F475" t="n">
+        <v>72</v>
+      </c>
+      <c r="G475" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I475" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J475" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>74</v>
+      </c>
+      <c r="F476" t="n">
+        <v>63</v>
+      </c>
+      <c r="G476" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I476" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J476" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>VCU Rams</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>49</v>
+      </c>
+      <c r="F477" t="n">
+        <v>47</v>
+      </c>
+      <c r="G477" t="n">
+        <v>2</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I477" t="n">
+        <v>1</v>
+      </c>
+      <c r="J477" t="n">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Busan BNK Sum F</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Samsung Blue Minx F</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>64</v>
+      </c>
+      <c r="F478" t="n">
+        <v>67</v>
+      </c>
+      <c r="G478" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I478" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J478" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Bucknell</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Boston University</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>62</v>
+      </c>
+      <c r="F479" t="n">
+        <v>77</v>
+      </c>
+      <c r="G479" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J479" t="n">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>North Dakota St.</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>81</v>
+      </c>
+      <c r="F480" t="n">
+        <v>79</v>
+      </c>
+      <c r="G480" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J480" t="n">
+        <v>16.69</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>North Alabama</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>67</v>
+      </c>
+      <c r="F481" t="n">
+        <v>63</v>
+      </c>
+      <c r="G481" t="n">
+        <v>2</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I481" t="n">
+        <v>1</v>
+      </c>
+      <c r="J481" t="n">
+        <v>17.69</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Robert Morris</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Wisc. Milwaukee</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>71</v>
+      </c>
+      <c r="F482" t="n">
+        <v>60</v>
+      </c>
+      <c r="G482" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I482" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J482" t="n">
+        <v>18.74000000000001</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>100</v>
+      </c>
+      <c r="F483" t="n">
+        <v>87</v>
+      </c>
+      <c r="G483" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I483" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J483" t="n">
+        <v>20.19</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Ockelbo</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Huddinge</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>92</v>
+      </c>
+      <c r="F484" t="n">
+        <v>76</v>
+      </c>
+      <c r="G484" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I484" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J484" t="n">
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>60</v>
+      </c>
+      <c r="F485" t="n">
+        <v>61</v>
+      </c>
+      <c r="G485" t="n">
+        <v>2</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I485" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J485" t="n">
+        <v>20.69</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Cal St. Bakersfield</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>CS Fullerton</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>73</v>
+      </c>
+      <c r="F486" t="n">
+        <v>71</v>
+      </c>
+      <c r="G486" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I486" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J486" t="n">
+        <v>21.56000000000001</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>South Carolina St</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Chicago St</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>78</v>
+      </c>
+      <c r="F487" t="n">
+        <v>55</v>
+      </c>
+      <c r="G487" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I487" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J487" t="n">
+        <v>22.66000000000001</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Houston Christian</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Incarnate Word</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>86</v>
+      </c>
+      <c r="F488" t="n">
+        <v>83</v>
+      </c>
+      <c r="G488" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I488" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J488" t="n">
+        <v>23.76000000000001</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Jacksonville St.</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Western Kentucky</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
+        <v>59</v>
+      </c>
+      <c r="F489" t="n">
+        <v>70</v>
+      </c>
+      <c r="G489" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I489" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J489" t="n">
+        <v>22.76000000000001</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Mobis Phoebus</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>94</v>
+      </c>
+      <c r="F490" t="n">
+        <v>77</v>
+      </c>
+      <c r="G490" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I490" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J490" t="n">
+        <v>23.44000000000001</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>George Washington</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Loyola (Ill).</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>73</v>
+      </c>
+      <c r="F491" t="n">
+        <v>81</v>
+      </c>
+      <c r="G491" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I491" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J491" t="n">
+        <v>22.44000000000001</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>135</v>
+      </c>
+      <c r="F492" t="n">
+        <v>106</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I492" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J492" t="n">
+        <v>23.22000000000001</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>98</v>
+      </c>
+      <c r="F493" t="n">
+        <v>97</v>
+      </c>
+      <c r="G493" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I493" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J493" t="n">
+        <v>23.82000000000001</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Comunicaciones Mercedes</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>74</v>
+      </c>
+      <c r="F494" t="n">
+        <v>80</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I494" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J494" t="n">
+        <v>22.82000000000001</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Clemson</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>68</v>
+      </c>
+      <c r="F495" t="n">
+        <v>77</v>
+      </c>
+      <c r="G495" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I495" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J495" t="n">
+        <v>21.82000000000001</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Dziki Warszawa</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Dabrowa Gornicza</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>82</v>
+      </c>
+      <c r="F496" t="n">
+        <v>76</v>
+      </c>
+      <c r="G496" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I496" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J496" t="n">
+        <v>22.72000000000001</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Florida Intl</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Middle Tenn. St.</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>66</v>
+      </c>
+      <c r="F497" t="n">
+        <v>68</v>
+      </c>
+      <c r="G497" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I497" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J497" t="n">
+        <v>21.72000000000001</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Nagoya Fighting Eagles</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>72</v>
+      </c>
+      <c r="F498" t="n">
+        <v>94</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I498" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J498" t="n">
+        <v>20.72000000000001</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Split</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>75</v>
+      </c>
+      <c r="F499" t="n">
+        <v>81</v>
+      </c>
+      <c r="G499" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I499" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J499" t="n">
+        <v>19.72000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J499"/>
+  <dimension ref="A1:J542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19408,6 +19408,1640 @@
         <v>19.72000000000001</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Nagoya Fighting Eagles</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>73</v>
+      </c>
+      <c r="F500" t="n">
+        <v>80</v>
+      </c>
+      <c r="G500" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I500" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J500" t="n">
+        <v>18.72000000000001</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Helios VS F</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Alte Kanti Aarau F</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>60</v>
+      </c>
+      <c r="F501" t="n">
+        <v>42</v>
+      </c>
+      <c r="G501" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I501" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J501" t="n">
+        <v>19.38000000000001</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
+        <v>99</v>
+      </c>
+      <c r="F502" t="n">
+        <v>68</v>
+      </c>
+      <c r="G502" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I502" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J502" t="n">
+        <v>20.15000000000001</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Tulsa</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>63</v>
+      </c>
+      <c r="F503" t="n">
+        <v>70</v>
+      </c>
+      <c r="G503" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I503" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J503" t="n">
+        <v>19.15000000000001</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>H. Afula</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Hapoel Beer Sheva</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
+        <v>91</v>
+      </c>
+      <c r="F504" t="n">
+        <v>76</v>
+      </c>
+      <c r="G504" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I504" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J504" t="n">
+        <v>19.86000000000001</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Chiusi</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Basket Torino</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
+        <v>68</v>
+      </c>
+      <c r="F505" t="n">
+        <v>72</v>
+      </c>
+      <c r="G505" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I505" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J505" t="n">
+        <v>18.86000000000001</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>San Miguel Beermen</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Magnolia Hotshots</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
+        <v>108</v>
+      </c>
+      <c r="F506" t="n">
+        <v>98</v>
+      </c>
+      <c r="G506" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I506" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J506" t="n">
+        <v>19.58000000000001</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>LePy F</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Jyvaskyla BA F</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
+        <v>47</v>
+      </c>
+      <c r="F507" t="n">
+        <v>63</v>
+      </c>
+      <c r="G507" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I507" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J507" t="n">
+        <v>18.58000000000001</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
+        <v>112</v>
+      </c>
+      <c r="F508" t="n">
+        <v>95</v>
+      </c>
+      <c r="G508" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I508" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J508" t="n">
+        <v>19.62000000000001</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Nicholls State</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M-CC</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>67</v>
+      </c>
+      <c r="F509" t="n">
+        <v>63</v>
+      </c>
+      <c r="G509" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I509" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J509" t="n">
+        <v>21.00000000000001</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Northwestern St.</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>70</v>
+      </c>
+      <c r="F510" t="n">
+        <v>59</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I510" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J510" t="n">
+        <v>21.73000000000001</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Lahti Basketball F</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>HBA F</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>69</v>
+      </c>
+      <c r="F511" t="n">
+        <v>57</v>
+      </c>
+      <c r="G511" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I511" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J511" t="n">
+        <v>22.43000000000001</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Boston University</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>65</v>
+      </c>
+      <c r="F512" t="n">
+        <v>50</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I512" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J512" t="n">
+        <v>23.26000000000001</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Murray State</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Missouri State</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>82</v>
+      </c>
+      <c r="F513" t="n">
+        <v>72</v>
+      </c>
+      <c r="G513" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I513" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J513" t="n">
+        <v>23.90000000000001</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>IPFW</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>63</v>
+      </c>
+      <c r="F514" t="n">
+        <v>71</v>
+      </c>
+      <c r="G514" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I514" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J514" t="n">
+        <v>22.90000000000001</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Maccabi Urban F</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem F</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>60</v>
+      </c>
+      <c r="F515" t="n">
+        <v>89</v>
+      </c>
+      <c r="G515" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I515" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J515" t="n">
+        <v>21.90000000000001</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Sodertalje</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Nassjo</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>86</v>
+      </c>
+      <c r="F516" t="n">
+        <v>88</v>
+      </c>
+      <c r="G516" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I516" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J516" t="n">
+        <v>20.90000000000001</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>East Carolina</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Wichita State</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>68</v>
+      </c>
+      <c r="F517" t="n">
+        <v>55</v>
+      </c>
+      <c r="G517" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I517" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J517" t="n">
+        <v>21.67000000000001</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Fresno State</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>UNLV</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>65</v>
+      </c>
+      <c r="F518" t="n">
+        <v>67</v>
+      </c>
+      <c r="G518" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I518" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J518" t="n">
+        <v>20.67000000000001</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Anyang JungKwanJang</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>KoGas</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>66</v>
+      </c>
+      <c r="F519" t="n">
+        <v>77</v>
+      </c>
+      <c r="G519" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I519" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J519" t="n">
+        <v>19.67000000000001</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Tarleton</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>78</v>
+      </c>
+      <c r="F520" t="n">
+        <v>80</v>
+      </c>
+      <c r="G520" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I520" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J520" t="n">
+        <v>18.67000000000001</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>85</v>
+      </c>
+      <c r="F521" t="n">
+        <v>65</v>
+      </c>
+      <c r="G521" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I521" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J521" t="n">
+        <v>19.22000000000001</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Ege Universitesi</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Ilkler Sehri Usak</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>83</v>
+      </c>
+      <c r="F522" t="n">
+        <v>74</v>
+      </c>
+      <c r="G522" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I522" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J522" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Queens Royals</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>74</v>
+      </c>
+      <c r="F523" t="n">
+        <v>65</v>
+      </c>
+      <c r="G523" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I523" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J523" t="n">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Cal St. Bakersfield</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>CS Northridge</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>71</v>
+      </c>
+      <c r="F524" t="n">
+        <v>76</v>
+      </c>
+      <c r="G524" t="n">
+        <v>2</v>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I524" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J524" t="n">
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Mogi</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>União Corinthians</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>80</v>
+      </c>
+      <c r="F525" t="n">
+        <v>94</v>
+      </c>
+      <c r="G525" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I525" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J525" t="n">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Mt. St. Marys</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>61</v>
+      </c>
+      <c r="F526" t="n">
+        <v>57</v>
+      </c>
+      <c r="G526" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I526" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J526" t="n">
+        <v>19.47</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Kennesaw State</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>North Florida</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>81</v>
+      </c>
+      <c r="F527" t="n">
+        <v>82</v>
+      </c>
+      <c r="G527" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I527" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J527" t="n">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Fuenlabrada</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Tizona Burgos</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>79</v>
+      </c>
+      <c r="F528" t="n">
+        <v>85</v>
+      </c>
+      <c r="G528" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I528" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J528" t="n">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Wake Forest</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>49</v>
+      </c>
+      <c r="F529" t="n">
+        <v>47</v>
+      </c>
+      <c r="G529" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I529" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J529" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Novosadska Novi Sad F</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Vojvodina 021 F</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>64</v>
+      </c>
+      <c r="F530" t="n">
+        <v>73</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I530" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J530" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Nis F</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Subotica F</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>93</v>
+      </c>
+      <c r="F531" t="n">
+        <v>84</v>
+      </c>
+      <c r="G531" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I531" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J531" t="n">
+        <v>17.83</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Old Dominion</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Georgia State</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>65</v>
+      </c>
+      <c r="F532" t="n">
+        <v>68</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I532" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J532" t="n">
+        <v>16.83</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>CS Northridge</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>73</v>
+      </c>
+      <c r="F533" t="n">
+        <v>87</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I533" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J533" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Harvard</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>75</v>
+      </c>
+      <c r="F534" t="n">
+        <v>80</v>
+      </c>
+      <c r="G534" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I534" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J534" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Coastal Carolina</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>74</v>
+      </c>
+      <c r="F535" t="n">
+        <v>67</v>
+      </c>
+      <c r="G535" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I535" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J535" t="n">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>North Dakota St.</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>77</v>
+      </c>
+      <c r="F536" t="n">
+        <v>71</v>
+      </c>
+      <c r="G536" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I536" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J536" t="n">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Georgia Tech</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>65</v>
+      </c>
+      <c r="F537" t="n">
+        <v>60</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I537" t="n">
+        <v>1</v>
+      </c>
+      <c r="J537" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>South Alabama</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Arkansas State</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>73</v>
+      </c>
+      <c r="F538" t="n">
+        <v>76</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I538" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J538" t="n">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Boston College</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>85</v>
+      </c>
+      <c r="F539" t="n">
+        <v>77</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I539" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J539" t="n">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Mladi Krajisnik F</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Play Off Sarajevo F</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>58</v>
+      </c>
+      <c r="F540" t="n">
+        <v>67</v>
+      </c>
+      <c r="G540" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I540" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J540" t="n">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Middle Tenn. St.</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>96</v>
+      </c>
+      <c r="F541" t="n">
+        <v>90</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I541" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J541" t="n">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>PEAC-Pecs F</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>DVTK F</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>71</v>
+      </c>
+      <c r="F542" t="n">
+        <v>75</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I542" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J542" t="n">
+        <v>16.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J542"/>
+  <dimension ref="A1:J573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21042,6 +21042,1184 @@
         <v>16.87</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Fukushima</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Shizuoka</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>98</v>
+      </c>
+      <c r="F543" t="n">
+        <v>93</v>
+      </c>
+      <c r="G543" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I543" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J543" t="n">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Ammerud</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>86</v>
+      </c>
+      <c r="F544" t="n">
+        <v>82</v>
+      </c>
+      <c r="G544" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I544" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J544" t="n">
+        <v>19.06000000000001</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>RIG Mark</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>IK Eos</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>57</v>
+      </c>
+      <c r="F545" t="n">
+        <v>69</v>
+      </c>
+      <c r="G545" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I545" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J545" t="n">
+        <v>18.06000000000001</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>KFUM Kalmar</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Malbas</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>79</v>
+      </c>
+      <c r="F546" t="n">
+        <v>78</v>
+      </c>
+      <c r="G546" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I546" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J546" t="n">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Basquet L'Horta Godella</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Salou</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>86</v>
+      </c>
+      <c r="F547" t="n">
+        <v>85</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I547" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J547" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>San Jose State</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>75</v>
+      </c>
+      <c r="F548" t="n">
+        <v>80</v>
+      </c>
+      <c r="G548" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I548" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J548" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>PS Karlsruhe</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>77</v>
+      </c>
+      <c r="F549" t="n">
+        <v>71</v>
+      </c>
+      <c r="G549" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I549" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J549" t="n">
+        <v>19.17000000000001</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>East Carolina</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Tulane</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>81</v>
+      </c>
+      <c r="F550" t="n">
+        <v>67</v>
+      </c>
+      <c r="G550" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I550" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J550" t="n">
+        <v>19.97000000000001</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Prairie View A&amp;M</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Grambling St.</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>74</v>
+      </c>
+      <c r="F551" t="n">
+        <v>83</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I551" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J551" t="n">
+        <v>18.97000000000001</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Shanxi Xing Rui F</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Jiangsu Phoenix F</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>70</v>
+      </c>
+      <c r="F552" t="n">
+        <v>80</v>
+      </c>
+      <c r="G552" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I552" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J552" t="n">
+        <v>17.97000000000001</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Zhejiang Golden Bulls F</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Shanghai F</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>86</v>
+      </c>
+      <c r="F553" t="n">
+        <v>81</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I553" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J553" t="n">
+        <v>19.21</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Northern Kentucky</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Cleveland State</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>75</v>
+      </c>
+      <c r="F554" t="n">
+        <v>73</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I554" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J554" t="n">
+        <v>19.94</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>96</v>
+      </c>
+      <c r="F555" t="n">
+        <v>110</v>
+      </c>
+      <c r="G555" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I555" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J555" t="n">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Ohio State</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>88</v>
+      </c>
+      <c r="F556" t="n">
+        <v>79</v>
+      </c>
+      <c r="G556" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I556" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J556" t="n">
+        <v>19.58000000000001</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>North Florida</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
+        <v>62</v>
+      </c>
+      <c r="F557" t="n">
+        <v>50</v>
+      </c>
+      <c r="G557" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I557" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J557" t="n">
+        <v>20.52000000000001</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
+        <v>64</v>
+      </c>
+      <c r="F558" t="n">
+        <v>66</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I558" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J558" t="n">
+        <v>19.52000000000001</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Canisius</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Niagara</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>69</v>
+      </c>
+      <c r="F559" t="n">
+        <v>59</v>
+      </c>
+      <c r="G559" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I559" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J559" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Shanxi Xing Rui F</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Guangdong F</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>70</v>
+      </c>
+      <c r="F560" t="n">
+        <v>86</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I560" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J560" t="n">
+        <v>19.35</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>North Dakota St.</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>North Dakota</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>73</v>
+      </c>
+      <c r="F561" t="n">
+        <v>68</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I561" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J561" t="n">
+        <v>20.12</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Le Moyne</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Fairleigh Dickinson</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>58</v>
+      </c>
+      <c r="F562" t="n">
+        <v>68</v>
+      </c>
+      <c r="G562" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I562" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J562" t="n">
+        <v>19.12</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>South Dakota Coyotes</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Oral Roberts</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>77</v>
+      </c>
+      <c r="F563" t="n">
+        <v>76</v>
+      </c>
+      <c r="G563" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I563" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J563" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Kennesaw State</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>84</v>
+      </c>
+      <c r="F564" t="n">
+        <v>72</v>
+      </c>
+      <c r="G564" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I564" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J564" t="n">
+        <v>21.06000000000001</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Final Spor</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Bornova</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>94</v>
+      </c>
+      <c r="F565" t="n">
+        <v>90</v>
+      </c>
+      <c r="G565" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I565" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J565" t="n">
+        <v>21.95000000000001</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Idaho State</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Weber State</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>80</v>
+      </c>
+      <c r="F566" t="n">
+        <v>62</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I566" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J566" t="n">
+        <v>23.13000000000001</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Bellarmine</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>North Alabama</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>82</v>
+      </c>
+      <c r="F567" t="n">
+        <v>70</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I567" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J567" t="n">
+        <v>24.41000000000001</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Utah Valley</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>71</v>
+      </c>
+      <c r="F568" t="n">
+        <v>62</v>
+      </c>
+      <c r="G568" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I568" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J568" t="n">
+        <v>24.99000000000001</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Coll Of Charltn</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>56</v>
+      </c>
+      <c r="F569" t="n">
+        <v>72</v>
+      </c>
+      <c r="G569" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I569" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J569" t="n">
+        <v>23.99000000000001</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Play Off Sarajevo F</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Zrinjski F</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>74</v>
+      </c>
+      <c r="F570" t="n">
+        <v>65</v>
+      </c>
+      <c r="G570" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I570" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J570" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Vilkaviskis</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Jurbarkas</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>79</v>
+      </c>
+      <c r="F571" t="n">
+        <v>80</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I571" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J571" t="n">
+        <v>23.62</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>UNLV</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Colorado State</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>66</v>
+      </c>
+      <c r="F572" t="n">
+        <v>60</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2</v>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I572" t="n">
+        <v>1</v>
+      </c>
+      <c r="J572" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Koroivos</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Mykonos</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>76</v>
+      </c>
+      <c r="F573" t="n">
+        <v>71</v>
+      </c>
+      <c r="G573" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I573" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J573" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J573"/>
+  <dimension ref="A1:J620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22220,6 +22220,1792 @@
         <v>25.16</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Yamagata Wyverns</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Fukushima</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>79</v>
+      </c>
+      <c r="F574" t="n">
+        <v>90</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I574" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J574" t="n">
+        <v>24.16</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Cozum Ankara</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Karamursel</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>65</v>
+      </c>
+      <c r="F575" t="n">
+        <v>72</v>
+      </c>
+      <c r="G575" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I575" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J575" t="n">
+        <v>23.16</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Emlak Konut Gelisim 2 F</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Burhaniye F</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>84</v>
+      </c>
+      <c r="F576" t="n">
+        <v>67</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I576" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J576" t="n">
+        <v>23.78</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Galitos F</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Natacao F</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>65</v>
+      </c>
+      <c r="F577" t="n">
+        <v>71</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I577" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J577" t="n">
+        <v>22.78</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>133</v>
+      </c>
+      <c r="F578" t="n">
+        <v>111</v>
+      </c>
+      <c r="G578" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I578" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J578" t="n">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>103</v>
+      </c>
+      <c r="F579" t="n">
+        <v>119</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I579" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J579" t="n">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>St. Johns</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Creighton</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>80</v>
+      </c>
+      <c r="F580" t="n">
+        <v>66</v>
+      </c>
+      <c r="G580" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I580" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J580" t="n">
+        <v>23.76000000000001</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Texas Tech</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>69</v>
+      </c>
+      <c r="F581" t="n">
+        <v>81</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I581" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J581" t="n">
+        <v>22.76000000000001</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>OGM Ormanspor</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>83</v>
+      </c>
+      <c r="F582" t="n">
+        <v>85</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I582" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J582" t="n">
+        <v>21.76000000000001</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>92</v>
+      </c>
+      <c r="F583" t="n">
+        <v>115</v>
+      </c>
+      <c r="G583" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I583" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J583" t="n">
+        <v>20.76000000000001</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>121</v>
+      </c>
+      <c r="F584" t="n">
+        <v>119</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I584" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J584" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Shaanxi Tianze F</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Wuhan F</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
+        <v>77</v>
+      </c>
+      <c r="F585" t="n">
+        <v>80</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I585" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J585" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
+        <v>67</v>
+      </c>
+      <c r="F586" t="n">
+        <v>66</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I586" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J586" t="n">
+        <v>20.93</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Mississippi St.</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>89</v>
+      </c>
+      <c r="F587" t="n">
+        <v>91</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I587" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J587" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Froya</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Gimle</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>75</v>
+      </c>
+      <c r="F588" t="n">
+        <v>80</v>
+      </c>
+      <c r="G588" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I588" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J588" t="n">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>American</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>51</v>
+      </c>
+      <c r="F589" t="n">
+        <v>73</v>
+      </c>
+      <c r="G589" t="n">
+        <v>2</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I589" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J589" t="n">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>132</v>
+      </c>
+      <c r="F590" t="n">
+        <v>123</v>
+      </c>
+      <c r="G590" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I590" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J590" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>123</v>
+      </c>
+      <c r="F591" t="n">
+        <v>114</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I591" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J591" t="n">
+        <v>20.01000000000001</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>St. Johns</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>59</v>
+      </c>
+      <c r="F592" t="n">
+        <v>82</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I592" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J592" t="n">
+        <v>19.01000000000001</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Chelyabinsk</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Barnaul</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
+        <v>73</v>
+      </c>
+      <c r="F593" t="n">
+        <v>65</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I593" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J593" t="n">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Townsville F</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Perth Lynx F</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>87</v>
+      </c>
+      <c r="F594" t="n">
+        <v>88</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J594" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
+        <v>112</v>
+      </c>
+      <c r="F595" t="n">
+        <v>116</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J595" t="n">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Panathinaikos F</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Athinaikos F</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
+        <v>106</v>
+      </c>
+      <c r="F596" t="n">
+        <v>42</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J596" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>UMass Lowell</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Bryant University</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>89</v>
+      </c>
+      <c r="F597" t="n">
+        <v>67</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J597" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>82</v>
+      </c>
+      <c r="F598" t="n">
+        <v>79</v>
+      </c>
+      <c r="G598" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J598" t="n">
+        <v>21.33000000000001</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>North Florida</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>78</v>
+      </c>
+      <c r="F599" t="n">
+        <v>59</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I599" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J599" t="n">
+        <v>22.20000000000001</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Niagara</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>61</v>
+      </c>
+      <c r="F600" t="n">
+        <v>71</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I600" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J600" t="n">
+        <v>21.20000000000001</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>57</v>
+      </c>
+      <c r="F601" t="n">
+        <v>59</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I601" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J601" t="n">
+        <v>20.20000000000001</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Georgia Southern</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Old Dominion</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>92</v>
+      </c>
+      <c r="F602" t="n">
+        <v>75</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I602" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J602" t="n">
+        <v>20.75000000000001</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>100</v>
+      </c>
+      <c r="F603" t="n">
+        <v>107</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I603" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J603" t="n">
+        <v>19.75000000000001</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Slavia Prague F</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>USK Prague F</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>44</v>
+      </c>
+      <c r="F604" t="n">
+        <v>105</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I604" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J604" t="n">
+        <v>18.75000000000001</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Natacao F</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>CAB Madeira F</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>70</v>
+      </c>
+      <c r="F605" t="n">
+        <v>64</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I605" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J605" t="n">
+        <v>19.54000000000001</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Maia</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
+        <v>82</v>
+      </c>
+      <c r="F606" t="n">
+        <v>89</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I606" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J606" t="n">
+        <v>18.54000000000001</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Idaho State</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Northern Colorado</t>
+        </is>
+      </c>
+      <c r="E607" t="n">
+        <v>79</v>
+      </c>
+      <c r="F607" t="n">
+        <v>81</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I607" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J607" t="n">
+        <v>17.54000000000001</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Florida Intl</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Western Kentucky</t>
+        </is>
+      </c>
+      <c r="E608" t="n">
+        <v>85</v>
+      </c>
+      <c r="F608" t="n">
+        <v>83</v>
+      </c>
+      <c r="G608" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I608" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J608" t="n">
+        <v>18.92000000000001</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Boston College</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
+      </c>
+      <c r="E609" t="n">
+        <v>65</v>
+      </c>
+      <c r="F609" t="n">
+        <v>90</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I609" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J609" t="n">
+        <v>17.92000000000001</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Huddinge</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Sloga Uppsala</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
+        <v>69</v>
+      </c>
+      <c r="F610" t="n">
+        <v>85</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I610" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J610" t="n">
+        <v>16.92000000000001</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
+        <v>71</v>
+      </c>
+      <c r="F611" t="n">
+        <v>74</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I611" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J611" t="n">
+        <v>15.92000000000001</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>South Florida</t>
+        </is>
+      </c>
+      <c r="E612" t="n">
+        <v>61</v>
+      </c>
+      <c r="F612" t="n">
+        <v>76</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I612" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J612" t="n">
+        <v>14.92000000000001</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Alabama A&amp;M</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Alabama State</t>
+        </is>
+      </c>
+      <c r="E613" t="n">
+        <v>58</v>
+      </c>
+      <c r="F613" t="n">
+        <v>53</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I613" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J613" t="n">
+        <v>15.83000000000001</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="E614" t="n">
+        <v>75</v>
+      </c>
+      <c r="F614" t="n">
+        <v>82</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I614" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J614" t="n">
+        <v>14.83000000000001</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Utah Valley</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="E615" t="n">
+        <v>65</v>
+      </c>
+      <c r="F615" t="n">
+        <v>78</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I615" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J615" t="n">
+        <v>13.83000000000001</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Northwestern St.</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Lamar</t>
+        </is>
+      </c>
+      <c r="E616" t="n">
+        <v>77</v>
+      </c>
+      <c r="F616" t="n">
+        <v>82</v>
+      </c>
+      <c r="G616" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I616" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J616" t="n">
+        <v>12.83000000000001</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Piestanske Cajky F</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Samorin F</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
+        <v>105</v>
+      </c>
+      <c r="F617" t="n">
+        <v>28</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I617" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J617" t="n">
+        <v>13.66000000000001</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Juventud Alcala</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>La Roda</t>
+        </is>
+      </c>
+      <c r="E618" t="n">
+        <v>84</v>
+      </c>
+      <c r="F618" t="n">
+        <v>81</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I618" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J618" t="n">
+        <v>14.22000000000001</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Bauru</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="E619" t="n">
+        <v>86</v>
+      </c>
+      <c r="F619" t="n">
+        <v>84</v>
+      </c>
+      <c r="G619" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I619" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J619" t="n">
+        <v>15.67000000000001</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>IK Eos</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Ockelbo</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
+        <v>76</v>
+      </c>
+      <c r="F620" t="n">
+        <v>83</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I620" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J620" t="n">
+        <v>14.67000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J620"/>
+  <dimension ref="A1:J640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24006,6 +24006,766 @@
         <v>14.67000000000001</v>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Astana</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
+        <v>64</v>
+      </c>
+      <c r="F621" t="n">
+        <v>82</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I621" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J621" t="n">
+        <v>13.67000000000001</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Ibaraki Robots</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
+        <v>89</v>
+      </c>
+      <c r="F622" t="n">
+        <v>90</v>
+      </c>
+      <c r="G622" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I622" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J622" t="n">
+        <v>12.67000000000001</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>NeoPhoenix</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
+        <v>89</v>
+      </c>
+      <c r="F623" t="n">
+        <v>98</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I623" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J623" t="n">
+        <v>11.67000000000001</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Oral Roberts</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>UMKC</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
+        <v>54</v>
+      </c>
+      <c r="F624" t="n">
+        <v>71</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I624" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J624" t="n">
+        <v>10.67000000000001</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Caledonia Gladiators F</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Nottingham Wildcats F</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>91</v>
+      </c>
+      <c r="F625" t="n">
+        <v>41</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J625" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>JuVi Cremona</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Cividale</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>72</v>
+      </c>
+      <c r="F626" t="n">
+        <v>86</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I626" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J626" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Seoul Knights</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>90</v>
+      </c>
+      <c r="F627" t="n">
+        <v>69</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I627" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J627" t="n">
+        <v>11.15000000000001</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Malbas</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Ockelbo</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>66</v>
+      </c>
+      <c r="F628" t="n">
+        <v>51</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I628" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J628" t="n">
+        <v>11.73000000000001</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Landes F</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Lyon F</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>78</v>
+      </c>
+      <c r="F629" t="n">
+        <v>65</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I629" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J629" t="n">
+        <v>12.38000000000001</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Lleida</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>73</v>
+      </c>
+      <c r="F630" t="n">
+        <v>75</v>
+      </c>
+      <c r="G630" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I630" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J630" t="n">
+        <v>11.38000000000001</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Yoast Utd</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>58</v>
+      </c>
+      <c r="F631" t="n">
+        <v>70</v>
+      </c>
+      <c r="G631" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I631" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J631" t="n">
+        <v>10.38000000000001</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Niedzwiadki Chemart Przemysl</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
+        <v>101</v>
+      </c>
+      <c r="F632" t="n">
+        <v>89</v>
+      </c>
+      <c r="G632" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I632" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J632" t="n">
+        <v>11.83000000000001</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Al Muharraq</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Al-Shabab</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
+        <v>87</v>
+      </c>
+      <c r="F633" t="n">
+        <v>97</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I633" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J633" t="n">
+        <v>10.83000000000001</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Howard</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Delaware State</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>85</v>
+      </c>
+      <c r="F634" t="n">
+        <v>66</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I634" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J634" t="n">
+        <v>11.38000000000001</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Incarnate Word</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>SE Louisiana</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
+        <v>56</v>
+      </c>
+      <c r="F635" t="n">
+        <v>73</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I635" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J635" t="n">
+        <v>10.38000000000001</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Prairie View A&amp;M</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Jackson State</t>
+        </is>
+      </c>
+      <c r="E636" t="n">
+        <v>74</v>
+      </c>
+      <c r="F636" t="n">
+        <v>79</v>
+      </c>
+      <c r="G636" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I636" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J636" t="n">
+        <v>9.380000000000006</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
+        <v>112</v>
+      </c>
+      <c r="F637" t="n">
+        <v>107</v>
+      </c>
+      <c r="G637" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I637" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J637" t="n">
+        <v>10.61000000000001</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Queens Royals</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
+        <v>83</v>
+      </c>
+      <c r="F638" t="n">
+        <v>71</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I638" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J638" t="n">
+        <v>11.16000000000001</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Enisey</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
+        <v>87</v>
+      </c>
+      <c r="F639" t="n">
+        <v>101</v>
+      </c>
+      <c r="G639" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I639" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J639" t="n">
+        <v>10.16000000000001</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>UMass Lowell</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>71</v>
+      </c>
+      <c r="F640" t="n">
+        <v>65</v>
+      </c>
+      <c r="G640" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J640" t="n">
+        <v>11.51000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J640"/>
+  <dimension ref="A1:J678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24766,6 +24766,1450 @@
         <v>11.51000000000001</v>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Tangerang Hawks</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>70</v>
+      </c>
+      <c r="F641" t="n">
+        <v>76</v>
+      </c>
+      <c r="G641" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I641" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J641" t="n">
+        <v>10.51000000000001</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Grindavik F</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Njardvik F</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>77</v>
+      </c>
+      <c r="F642" t="n">
+        <v>69</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I642" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J642" t="n">
+        <v>11.16000000000001</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
+        <v>66</v>
+      </c>
+      <c r="F643" t="n">
+        <v>85</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I643" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J643" t="n">
+        <v>10.16000000000001</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Sendai</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Akita</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
+        <v>59</v>
+      </c>
+      <c r="F644" t="n">
+        <v>90</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I644" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J644" t="n">
+        <v>9.160000000000007</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Loyola (Ill).</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
+        <v>59</v>
+      </c>
+      <c r="F645" t="n">
+        <v>69</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I645" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J645" t="n">
+        <v>8.160000000000007</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>117</v>
+      </c>
+      <c r="F646" t="n">
+        <v>119</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I646" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J646" t="n">
+        <v>7.160000000000007</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Southside F</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Melbourne Boomers F</t>
+        </is>
+      </c>
+      <c r="E647" t="n">
+        <v>93</v>
+      </c>
+      <c r="F647" t="n">
+        <v>77</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I647" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J647" t="n">
+        <v>7.820000000000007</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Mississippi St.</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
+        <v>75</v>
+      </c>
+      <c r="F648" t="n">
+        <v>69</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I648" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J648" t="n">
+        <v>8.620000000000008</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>South Carolina</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="E649" t="n">
+        <v>59</v>
+      </c>
+      <c r="F649" t="n">
+        <v>66</v>
+      </c>
+      <c r="G649" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I649" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J649" t="n">
+        <v>7.620000000000008</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>West Virginia</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="E650" t="n">
+        <v>81</v>
+      </c>
+      <c r="F650" t="n">
+        <v>93</v>
+      </c>
+      <c r="G650" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I650" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J650" t="n">
+        <v>6.620000000000008</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Illinois State</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Evansville</t>
+        </is>
+      </c>
+      <c r="E651" t="n">
+        <v>53</v>
+      </c>
+      <c r="F651" t="n">
+        <v>59</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I651" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J651" t="n">
+        <v>5.620000000000008</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E652" t="n">
+        <v>72</v>
+      </c>
+      <c r="F652" t="n">
+        <v>100</v>
+      </c>
+      <c r="G652" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I652" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J652" t="n">
+        <v>4.620000000000008</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Austin Peay</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>North Alabama</t>
+        </is>
+      </c>
+      <c r="E653" t="n">
+        <v>77</v>
+      </c>
+      <c r="F653" t="n">
+        <v>71</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I653" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J653" t="n">
+        <v>5.200000000000008</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Thorl</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Njardvik</t>
+        </is>
+      </c>
+      <c r="E654" t="n">
+        <v>100</v>
+      </c>
+      <c r="F654" t="n">
+        <v>110</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I654" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J654" t="n">
+        <v>4.200000000000008</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Georgia State</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="E655" t="n">
+        <v>74</v>
+      </c>
+      <c r="F655" t="n">
+        <v>86</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I655" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J655" t="n">
+        <v>3.200000000000008</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Besiktas F</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Uni Girona F</t>
+        </is>
+      </c>
+      <c r="E656" t="n">
+        <v>81</v>
+      </c>
+      <c r="F656" t="n">
+        <v>60</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I656" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J656" t="n">
+        <v>3.890000000000008</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Siu Edwardsville</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Eastern Illinois</t>
+        </is>
+      </c>
+      <c r="E657" t="n">
+        <v>68</v>
+      </c>
+      <c r="F657" t="n">
+        <v>57</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I657" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J657" t="n">
+        <v>4.560000000000008</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="E658" t="n">
+        <v>55</v>
+      </c>
+      <c r="F658" t="n">
+        <v>56</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I658" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J658" t="n">
+        <v>3.560000000000008</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Yulon Luxgen Dinos</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Taiwan Beer</t>
+        </is>
+      </c>
+      <c r="E659" t="n">
+        <v>64</v>
+      </c>
+      <c r="F659" t="n">
+        <v>96</v>
+      </c>
+      <c r="G659" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I659" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J659" t="n">
+        <v>2.560000000000008</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Tianjin</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="E660" t="n">
+        <v>99</v>
+      </c>
+      <c r="F660" t="n">
+        <v>109</v>
+      </c>
+      <c r="G660" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I660" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J660" t="n">
+        <v>1.560000000000008</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E661" t="n">
+        <v>98</v>
+      </c>
+      <c r="F661" t="n">
+        <v>74</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I661" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J661" t="n">
+        <v>2.300000000000009</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Oral Roberts</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>South Dakota Coyotes</t>
+        </is>
+      </c>
+      <c r="E662" t="n">
+        <v>77</v>
+      </c>
+      <c r="F662" t="n">
+        <v>62</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I662" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J662" t="n">
+        <v>2.940000000000009</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Winthrop</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Longwood</t>
+        </is>
+      </c>
+      <c r="E663" t="n">
+        <v>56</v>
+      </c>
+      <c r="F663" t="n">
+        <v>69</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I663" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J663" t="n">
+        <v>1.940000000000009</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Illiabum</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Galitos Barreiro</t>
+        </is>
+      </c>
+      <c r="E664" t="n">
+        <v>74</v>
+      </c>
+      <c r="F664" t="n">
+        <v>85</v>
+      </c>
+      <c r="G664" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I664" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J664" t="n">
+        <v>0.9400000000000088</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Pallacanestro Nardo</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Monferrato</t>
+        </is>
+      </c>
+      <c r="E665" t="n">
+        <v>100</v>
+      </c>
+      <c r="F665" t="n">
+        <v>80</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J665" t="n">
+        <v>1.570000000000009</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Utah Valley</t>
+        </is>
+      </c>
+      <c r="E666" t="n">
+        <v>67</v>
+      </c>
+      <c r="F666" t="n">
+        <v>74</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I666" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J666" t="n">
+        <v>0.5700000000000087</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>UC Davis</t>
+        </is>
+      </c>
+      <c r="E667" t="n">
+        <v>78</v>
+      </c>
+      <c r="F667" t="n">
+        <v>88</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I667" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J667" t="n">
+        <v>-0.4299999999999913</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Ockelbo</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>AIK Basket</t>
+        </is>
+      </c>
+      <c r="E668" t="n">
+        <v>77</v>
+      </c>
+      <c r="F668" t="n">
+        <v>62</v>
+      </c>
+      <c r="G668" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I668" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J668" t="n">
+        <v>1.180000000000009</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Norrort</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Wetterbygden Stars</t>
+        </is>
+      </c>
+      <c r="E669" t="n">
+        <v>69</v>
+      </c>
+      <c r="F669" t="n">
+        <v>92</v>
+      </c>
+      <c r="G669" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I669" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J669" t="n">
+        <v>0.1800000000000088</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>CBK Kosice F</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Young Angels Kosice F</t>
+        </is>
+      </c>
+      <c r="E670" t="n">
+        <v>79</v>
+      </c>
+      <c r="F670" t="n">
+        <v>67</v>
+      </c>
+      <c r="G670" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I670" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J670" t="n">
+        <v>0.9200000000000088</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Levski</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Shumen</t>
+        </is>
+      </c>
+      <c r="E671" t="n">
+        <v>68</v>
+      </c>
+      <c r="F671" t="n">
+        <v>79</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I671" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J671" t="n">
+        <v>-0.07999999999999119</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E672" t="n">
+        <v>107</v>
+      </c>
+      <c r="F672" t="n">
+        <v>117</v>
+      </c>
+      <c r="G672" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I672" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J672" t="n">
+        <v>-1.079999999999991</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Fortaleza B.C.</t>
+        </is>
+      </c>
+      <c r="E673" t="n">
+        <v>72</v>
+      </c>
+      <c r="F673" t="n">
+        <v>61</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I673" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J673" t="n">
+        <v>-0.4099999999999911</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Promo</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Orlovik</t>
+        </is>
+      </c>
+      <c r="E674" t="n">
+        <v>86</v>
+      </c>
+      <c r="F674" t="n">
+        <v>79</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I674" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J674" t="n">
+        <v>0.3300000000000088</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>UMKC</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E675" t="n">
+        <v>60</v>
+      </c>
+      <c r="F675" t="n">
+        <v>61</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I675" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J675" t="n">
+        <v>-0.6699999999999912</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Stony Brook</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Northeastern</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>75</v>
+      </c>
+      <c r="F676" t="n">
+        <v>65</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I676" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J676" t="n">
+        <v>-0.02999999999999114</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Xavier</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Marquette</t>
+        </is>
+      </c>
+      <c r="E677" t="n">
+        <v>80</v>
+      </c>
+      <c r="F677" t="n">
+        <v>86</v>
+      </c>
+      <c r="G677" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I677" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J677" t="n">
+        <v>-1.029999999999991</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Mississippi St.</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>South Carolina</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>89</v>
+      </c>
+      <c r="F678" t="n">
+        <v>93</v>
+      </c>
+      <c r="G678" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I678" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J678" t="n">
+        <v>-2.029999999999991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J678"/>
+  <dimension ref="A1:J704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26210,6 +26210,994 @@
         <v>-2.029999999999991</v>
       </c>
     </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Bristol Flyers</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Leicester Riders</t>
+        </is>
+      </c>
+      <c r="E679" t="n">
+        <v>108</v>
+      </c>
+      <c r="F679" t="n">
+        <v>71</v>
+      </c>
+      <c r="G679" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J679" t="n">
+        <v>-0.9399999999999913</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Vasco Da Gama</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>76</v>
+      </c>
+      <c r="F680" t="n">
+        <v>75</v>
+      </c>
+      <c r="G680" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J680" t="n">
+        <v>0.5100000000000087</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Sangalhos</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>CA Queluz</t>
+        </is>
+      </c>
+      <c r="E681" t="n">
+        <v>74</v>
+      </c>
+      <c r="F681" t="n">
+        <v>69</v>
+      </c>
+      <c r="G681" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J681" t="n">
+        <v>1.410000000000009</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Koping Stars</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>108</v>
+      </c>
+      <c r="F682" t="n">
+        <v>79</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J682" t="n">
+        <v>1.970000000000009</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Shizuoka</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Nara</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>75</v>
+      </c>
+      <c r="F683" t="n">
+        <v>62</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J683" t="n">
+        <v>2.530000000000009</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>IK Eos</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>KFUM Kalmar</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>97</v>
+      </c>
+      <c r="F684" t="n">
+        <v>86</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J684" t="n">
+        <v>3.240000000000009</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>North Dakota</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>72</v>
+      </c>
+      <c r="F685" t="n">
+        <v>73</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I685" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J685" t="n">
+        <v>2.240000000000009</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>NC Asheville</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Longwood</t>
+        </is>
+      </c>
+      <c r="E686" t="n">
+        <v>59</v>
+      </c>
+      <c r="F686" t="n">
+        <v>85</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I686" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J686" t="n">
+        <v>1.240000000000009</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Fenerbahce 2</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Bornova</t>
+        </is>
+      </c>
+      <c r="E687" t="n">
+        <v>110</v>
+      </c>
+      <c r="F687" t="n">
+        <v>94</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I687" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J687" t="n">
+        <v>2.050000000000009</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Southside F</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Perth Lynx F</t>
+        </is>
+      </c>
+      <c r="E688" t="n">
+        <v>79</v>
+      </c>
+      <c r="F688" t="n">
+        <v>101</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I688" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J688" t="n">
+        <v>1.050000000000009</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>70</v>
+      </c>
+      <c r="F689" t="n">
+        <v>81</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J689" t="n">
+        <v>0.0500000000000087</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>117</v>
+      </c>
+      <c r="F690" t="n">
+        <v>124</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I690" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J690" t="n">
+        <v>-0.9499999999999913</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>97</v>
+      </c>
+      <c r="F691" t="n">
+        <v>111</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I691" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J691" t="n">
+        <v>-1.949999999999991</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Alginet</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>CB Santfeliuenc</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>83</v>
+      </c>
+      <c r="F692" t="n">
+        <v>89</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I692" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J692" t="n">
+        <v>-2.949999999999991</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Ferrol F</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Gran Canaria F</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>83</v>
+      </c>
+      <c r="F693" t="n">
+        <v>91</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I693" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J693" t="n">
+        <v>-3.949999999999991</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>77</v>
+      </c>
+      <c r="F694" t="n">
+        <v>66</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I694" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J694" t="n">
+        <v>-3.379999999999991</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Decin</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="E695" t="n">
+        <v>91</v>
+      </c>
+      <c r="F695" t="n">
+        <v>87</v>
+      </c>
+      <c r="G695" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I695" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J695" t="n">
+        <v>-2.369999999999991</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Hoops</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Champville</t>
+        </is>
+      </c>
+      <c r="E696" t="n">
+        <v>64</v>
+      </c>
+      <c r="F696" t="n">
+        <v>69</v>
+      </c>
+      <c r="G696" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I696" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J696" t="n">
+        <v>-3.369999999999991</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Galil Elyon</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Ironi Kiryat Ata</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>83</v>
+      </c>
+      <c r="F697" t="n">
+        <v>93</v>
+      </c>
+      <c r="G697" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I697" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J697" t="n">
+        <v>-4.369999999999991</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E698" t="n">
+        <v>111</v>
+      </c>
+      <c r="F698" t="n">
+        <v>117</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I698" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J698" t="n">
+        <v>-5.369999999999991</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="E699" t="n">
+        <v>67</v>
+      </c>
+      <c r="F699" t="n">
+        <v>89</v>
+      </c>
+      <c r="G699" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I699" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J699" t="n">
+        <v>-6.369999999999991</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Svendborg</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="E700" t="n">
+        <v>76</v>
+      </c>
+      <c r="F700" t="n">
+        <v>83</v>
+      </c>
+      <c r="G700" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I700" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J700" t="n">
+        <v>-7.369999999999991</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Hebei F</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Xinjiang F</t>
+        </is>
+      </c>
+      <c r="E701" t="n">
+        <v>62</v>
+      </c>
+      <c r="F701" t="n">
+        <v>86</v>
+      </c>
+      <c r="G701" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I701" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J701" t="n">
+        <v>-8.36999999999999</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Boston College</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E702" t="n">
+        <v>81</v>
+      </c>
+      <c r="F702" t="n">
+        <v>65</v>
+      </c>
+      <c r="G702" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I702" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J702" t="n">
+        <v>-7.319999999999991</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E703" t="n">
+        <v>129</v>
+      </c>
+      <c r="F703" t="n">
+        <v>94</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I703" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J703" t="n">
+        <v>-6.53999999999999</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>St. Louis</t>
+        </is>
+      </c>
+      <c r="E704" t="n">
+        <v>71</v>
+      </c>
+      <c r="F704" t="n">
+        <v>74</v>
+      </c>
+      <c r="G704" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I704" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J704" t="n">
+        <v>-7.53999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J704"/>
+  <dimension ref="A1:J810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27198,6 +27198,4034 @@
         <v>-7.53999999999999</v>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>BK Ogre</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Ventspils</t>
+        </is>
+      </c>
+      <c r="E705" t="n">
+        <v>105</v>
+      </c>
+      <c r="F705" t="n">
+        <v>99</v>
+      </c>
+      <c r="G705" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I705" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J705" t="n">
+        <v>-6.27999999999999</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Sdent BBC Nyon</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="E706" t="n">
+        <v>86</v>
+      </c>
+      <c r="F706" t="n">
+        <v>82</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I706" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J706" t="n">
+        <v>-5.44999999999999</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Aykanat Spor</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Eskisehir BK</t>
+        </is>
+      </c>
+      <c r="E707" t="n">
+        <v>80</v>
+      </c>
+      <c r="F707" t="n">
+        <v>79</v>
+      </c>
+      <c r="G707" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I707" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J707" t="n">
+        <v>-4.109999999999991</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Kansas State</t>
+        </is>
+      </c>
+      <c r="E708" t="n">
+        <v>74</v>
+      </c>
+      <c r="F708" t="n">
+        <v>78</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I708" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J708" t="n">
+        <v>-5.109999999999991</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Utah Valley</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>California Baptist</t>
+        </is>
+      </c>
+      <c r="E709" t="n">
+        <v>63</v>
+      </c>
+      <c r="F709" t="n">
+        <v>74</v>
+      </c>
+      <c r="G709" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I709" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J709" t="n">
+        <v>-6.109999999999991</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Xavier</t>
+        </is>
+      </c>
+      <c r="E710" t="n">
+        <v>72</v>
+      </c>
+      <c r="F710" t="n">
+        <v>76</v>
+      </c>
+      <c r="G710" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I710" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J710" t="n">
+        <v>-7.109999999999991</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="E711" t="n">
+        <v>77</v>
+      </c>
+      <c r="F711" t="n">
+        <v>70</v>
+      </c>
+      <c r="G711" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I711" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J711" t="n">
+        <v>-6.37999999999999</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Anyang JungKwanJang</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Seoul Thunders</t>
+        </is>
+      </c>
+      <c r="E712" t="n">
+        <v>69</v>
+      </c>
+      <c r="F712" t="n">
+        <v>77</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I712" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J712" t="n">
+        <v>-7.37999999999999</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>East Carolina</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Tulsa</t>
+        </is>
+      </c>
+      <c r="E713" t="n">
+        <v>84</v>
+      </c>
+      <c r="F713" t="n">
+        <v>79</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I713" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J713" t="n">
+        <v>-6.64999999999999</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>CS Northridge</t>
+        </is>
+      </c>
+      <c r="E714" t="n">
+        <v>84</v>
+      </c>
+      <c r="F714" t="n">
+        <v>87</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I714" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J714" t="n">
+        <v>-7.64999999999999</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>CSM Constanta</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>84</v>
+      </c>
+      <c r="F715" t="n">
+        <v>92</v>
+      </c>
+      <c r="G715" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I715" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J715" t="n">
+        <v>-8.64999999999999</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Bowling Green</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Kent State</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>60</v>
+      </c>
+      <c r="F716" t="n">
+        <v>73</v>
+      </c>
+      <c r="G716" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I716" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J716" t="n">
+        <v>-9.64999999999999</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>N.C. State</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>65</v>
+      </c>
+      <c r="F717" t="n">
+        <v>73</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I717" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J717" t="n">
+        <v>-10.64999999999999</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Ohio State</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>77</v>
+      </c>
+      <c r="F718" t="n">
+        <v>74</v>
+      </c>
+      <c r="G718" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I718" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J718" t="n">
+        <v>-10.09999999999999</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>64</v>
+      </c>
+      <c r="F719" t="n">
+        <v>58</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I719" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J719" t="n">
+        <v>-9.48999999999999</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Cividale</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Basket Torino</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>78</v>
+      </c>
+      <c r="F720" t="n">
+        <v>68</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I720" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J720" t="n">
+        <v>-8.829999999999989</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Venados de Mazatlan</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Zonkeys de Tijuana</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
+        <v>91</v>
+      </c>
+      <c r="F721" t="n">
+        <v>85</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I721" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J721" t="n">
+        <v>-8.04999999999999</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Liege</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>90</v>
+      </c>
+      <c r="F722" t="n">
+        <v>70</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I722" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J722" t="n">
+        <v>-7.48999999999999</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Spirou Charleroi</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>84</v>
+      </c>
+      <c r="F723" t="n">
+        <v>68</v>
+      </c>
+      <c r="G723" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I723" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J723" t="n">
+        <v>-6.14999999999999</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Roanne</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Gravelines-Dunkerque</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>69</v>
+      </c>
+      <c r="F724" t="n">
+        <v>78</v>
+      </c>
+      <c r="G724" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I724" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J724" t="n">
+        <v>-7.14999999999999</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Illiabum</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>73</v>
+      </c>
+      <c r="F725" t="n">
+        <v>83</v>
+      </c>
+      <c r="G725" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I725" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J725" t="n">
+        <v>-8.14999999999999</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Fujitsu F</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Chanson V-Magic F</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>64</v>
+      </c>
+      <c r="F726" t="n">
+        <v>59</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I726" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J726" t="n">
+        <v>-7.539999999999989</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Venados de Mazatlan</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Zonkeys de Tijuana</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>91</v>
+      </c>
+      <c r="F727" t="n">
+        <v>85</v>
+      </c>
+      <c r="G727" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I727" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J727" t="n">
+        <v>-6.629999999999989</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Western Kentucky</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>78</v>
+      </c>
+      <c r="F728" t="n">
+        <v>71</v>
+      </c>
+      <c r="G728" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I728" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J728" t="n">
+        <v>-5.999999999999989</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>68</v>
+      </c>
+      <c r="F729" t="n">
+        <v>75</v>
+      </c>
+      <c r="G729" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I729" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J729" t="n">
+        <v>-6.999999999999989</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Galatasaray F</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Ormanspor F</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>77</v>
+      </c>
+      <c r="F730" t="n">
+        <v>78</v>
+      </c>
+      <c r="G730" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I730" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J730" t="n">
+        <v>-7.999999999999989</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Las Animas</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>91</v>
+      </c>
+      <c r="F731" t="n">
+        <v>77</v>
+      </c>
+      <c r="G731" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I731" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J731" t="n">
+        <v>-7.009999999999989</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>MoraBanc Andorra</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>66</v>
+      </c>
+      <c r="F732" t="n">
+        <v>79</v>
+      </c>
+      <c r="G732" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I732" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J732" t="n">
+        <v>-8.009999999999989</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Kormend</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Szolnoki Olaj</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>85</v>
+      </c>
+      <c r="F733" t="n">
+        <v>90</v>
+      </c>
+      <c r="G733" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I733" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J733" t="n">
+        <v>-9.009999999999989</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Almansa</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>96</v>
+      </c>
+      <c r="F734" t="n">
+        <v>91</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I734" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J734" t="n">
+        <v>-8.179999999999989</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Gran Canaria B</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>L'Hospitalet</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>75</v>
+      </c>
+      <c r="F735" t="n">
+        <v>71</v>
+      </c>
+      <c r="G735" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I735" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J735" t="n">
+        <v>-7.349999999999989</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>IDK Gipuzkoa F</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Uni Girona F</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>57</v>
+      </c>
+      <c r="F736" t="n">
+        <v>78</v>
+      </c>
+      <c r="G736" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I736" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J736" t="n">
+        <v>-8.349999999999989</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Gernika Bizkaia F</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Jairis F</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>63</v>
+      </c>
+      <c r="F737" t="n">
+        <v>69</v>
+      </c>
+      <c r="G737" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I737" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J737" t="n">
+        <v>-9.349999999999989</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Tarleton</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>84</v>
+      </c>
+      <c r="F738" t="n">
+        <v>87</v>
+      </c>
+      <c r="G738" t="n">
+        <v>2</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I738" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J738" t="n">
+        <v>-10.34999999999999</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Colorado State</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>74</v>
+      </c>
+      <c r="F739" t="n">
+        <v>61</v>
+      </c>
+      <c r="G739" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I739" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J739" t="n">
+        <v>-9.619999999999989</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>93</v>
+      </c>
+      <c r="F740" t="n">
+        <v>87</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I740" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J740" t="n">
+        <v>-8.949999999999989</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Melbourne United</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Tasmania JackJumpers</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>104</v>
+      </c>
+      <c r="F741" t="n">
+        <v>81</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I741" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J741" t="n">
+        <v>-8.379999999999988</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>78</v>
+      </c>
+      <c r="F742" t="n">
+        <v>72</v>
+      </c>
+      <c r="G742" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I742" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J742" t="n">
+        <v>-6.999999999999988</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Fos-sur-Mer</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>79</v>
+      </c>
+      <c r="F743" t="n">
+        <v>71</v>
+      </c>
+      <c r="G743" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I743" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J743" t="n">
+        <v>-6.459999999999988</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Clavijo</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>78</v>
+      </c>
+      <c r="F744" t="n">
+        <v>81</v>
+      </c>
+      <c r="G744" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I744" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J744" t="n">
+        <v>-7.459999999999988</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>66</v>
+      </c>
+      <c r="F745" t="n">
+        <v>101</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I745" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J745" t="n">
+        <v>-8.459999999999988</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>LTH Castings</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Podcetrtek</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>78</v>
+      </c>
+      <c r="F746" t="n">
+        <v>81</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I746" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J746" t="n">
+        <v>-9.459999999999988</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Pelister</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>73</v>
+      </c>
+      <c r="F747" t="n">
+        <v>72</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I747" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J747" t="n">
+        <v>-8.749999999999989</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>72</v>
+      </c>
+      <c r="F748" t="n">
+        <v>73</v>
+      </c>
+      <c r="G748" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I748" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J748" t="n">
+        <v>-9.749999999999989</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>96</v>
+      </c>
+      <c r="F749" t="n">
+        <v>81</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I749" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J749" t="n">
+        <v>-9.119999999999989</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>112</v>
+      </c>
+      <c r="F750" t="n">
+        <v>115</v>
+      </c>
+      <c r="G750" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I750" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J750" t="n">
+        <v>-10.11999999999999</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Tofas</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>78</v>
+      </c>
+      <c r="F751" t="n">
+        <v>65</v>
+      </c>
+      <c r="G751" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I751" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J751" t="n">
+        <v>-9.239999999999988</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>North Texas</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>77</v>
+      </c>
+      <c r="F752" t="n">
+        <v>84</v>
+      </c>
+      <c r="G752" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I752" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J752" t="n">
+        <v>-10.23999999999999</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Howard</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>68</v>
+      </c>
+      <c r="F753" t="n">
+        <v>71</v>
+      </c>
+      <c r="G753" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I753" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J753" t="n">
+        <v>-11.23999999999999</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Cedevita</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>79</v>
+      </c>
+      <c r="F754" t="n">
+        <v>85</v>
+      </c>
+      <c r="G754" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I754" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J754" t="n">
+        <v>-12.23999999999999</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Decin</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Usti n. Labem</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>71</v>
+      </c>
+      <c r="F755" t="n">
+        <v>93</v>
+      </c>
+      <c r="G755" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I755" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J755" t="n">
+        <v>-13.23999999999999</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Forssan Alku F</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Kouvottaret F</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>98</v>
+      </c>
+      <c r="F756" t="n">
+        <v>93</v>
+      </c>
+      <c r="G756" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I756" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J756" t="n">
+        <v>-12.08999999999999</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>118</v>
+      </c>
+      <c r="F757" t="n">
+        <v>102</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I757" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J757" t="n">
+        <v>-11.30999999999999</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Mrkonjic Grad</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Spars Ilidza</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
+        <v>108</v>
+      </c>
+      <c r="F758" t="n">
+        <v>88</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I758" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J758" t="n">
+        <v>-10.61999999999999</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>BKM Lucenec</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Handlova</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>89</v>
+      </c>
+      <c r="F759" t="n">
+        <v>85</v>
+      </c>
+      <c r="G759" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I759" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J759" t="n">
+        <v>-9.599999999999989</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>79</v>
+      </c>
+      <c r="F760" t="n">
+        <v>83</v>
+      </c>
+      <c r="G760" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I760" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J760" t="n">
+        <v>-10.59999999999999</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Jilin</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Shanxi Zhongyu</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>101</v>
+      </c>
+      <c r="F761" t="n">
+        <v>108</v>
+      </c>
+      <c r="G761" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I761" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J761" t="n">
+        <v>-11.59999999999999</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>94</v>
+      </c>
+      <c r="F762" t="n">
+        <v>76</v>
+      </c>
+      <c r="G762" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I762" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J762" t="n">
+        <v>-10.88999999999999</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Washington State</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Drake</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>66</v>
+      </c>
+      <c r="F763" t="n">
+        <v>61</v>
+      </c>
+      <c r="G763" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I763" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J763" t="n">
+        <v>-9.839999999999989</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Seoul Knights</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Wonju DB</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>83</v>
+      </c>
+      <c r="F764" t="n">
+        <v>84</v>
+      </c>
+      <c r="G764" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I764" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J764" t="n">
+        <v>-10.83999999999999</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Brandys nad Labem F</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Slovanka F</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>56</v>
+      </c>
+      <c r="F765" t="n">
+        <v>65</v>
+      </c>
+      <c r="G765" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I765" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J765" t="n">
+        <v>-11.83999999999999</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>89</v>
+      </c>
+      <c r="F766" t="n">
+        <v>81</v>
+      </c>
+      <c r="G766" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I766" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J766" t="n">
+        <v>-11.25999999999999</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Mogi</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Cerrado</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>70</v>
+      </c>
+      <c r="F767" t="n">
+        <v>65</v>
+      </c>
+      <c r="G767" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I767" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J767" t="n">
+        <v>-10.26999999999999</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Utah State</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>88</v>
+      </c>
+      <c r="F768" t="n">
+        <v>72</v>
+      </c>
+      <c r="G768" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I768" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J768" t="n">
+        <v>-8.749999999999989</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Tangerang Hawks</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Hangtuah</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>75</v>
+      </c>
+      <c r="F769" t="n">
+        <v>85</v>
+      </c>
+      <c r="G769" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I769" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J769" t="n">
+        <v>-9.749999999999989</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Nagoya Fighting Eagles</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Shimane</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>76</v>
+      </c>
+      <c r="F770" t="n">
+        <v>82</v>
+      </c>
+      <c r="G770" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I770" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J770" t="n">
+        <v>-10.74999999999999</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Izmit Bld. F</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Galatasaray F</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>64</v>
+      </c>
+      <c r="F771" t="n">
+        <v>90</v>
+      </c>
+      <c r="G771" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I771" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J771" t="n">
+        <v>-11.74999999999999</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Bank of Taiwan</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Yulon Luxgen Dinos</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
+        <v>73</v>
+      </c>
+      <c r="F772" t="n">
+        <v>81</v>
+      </c>
+      <c r="G772" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I772" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J772" t="n">
+        <v>-12.74999999999999</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Slavija</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Orlovik</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>89</v>
+      </c>
+      <c r="F773" t="n">
+        <v>92</v>
+      </c>
+      <c r="G773" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I773" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J773" t="n">
+        <v>-13.74999999999999</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>82</v>
+      </c>
+      <c r="F774" t="n">
+        <v>69</v>
+      </c>
+      <c r="G774" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I774" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J774" t="n">
+        <v>-12.67999999999999</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Sassari</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>87</v>
+      </c>
+      <c r="F775" t="n">
+        <v>76</v>
+      </c>
+      <c r="G775" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I775" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J775" t="n">
+        <v>-11.96999999999999</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Kobrat</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>KTP Basket</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>83</v>
+      </c>
+      <c r="F776" t="n">
+        <v>74</v>
+      </c>
+      <c r="G776" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I776" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J776" t="n">
+        <v>-11.39999999999999</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Pyrinto F</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>Forssan Alku F</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>71</v>
+      </c>
+      <c r="F777" t="n">
+        <v>82</v>
+      </c>
+      <c r="G777" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I777" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J777" t="n">
+        <v>-12.39999999999999</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>Ciudad de Huelva</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>64</v>
+      </c>
+      <c r="F778" t="n">
+        <v>82</v>
+      </c>
+      <c r="G778" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I778" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J778" t="n">
+        <v>-13.39999999999999</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Seton Hall</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>North Texas</t>
+        </is>
+      </c>
+      <c r="E779" t="n">
+        <v>72</v>
+      </c>
+      <c r="F779" t="n">
+        <v>58</v>
+      </c>
+      <c r="G779" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I779" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J779" t="n">
+        <v>-12.81999999999999</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Rytas</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>BC Wolves</t>
+        </is>
+      </c>
+      <c r="E780" t="n">
+        <v>99</v>
+      </c>
+      <c r="F780" t="n">
+        <v>83</v>
+      </c>
+      <c r="G780" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I780" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J780" t="n">
+        <v>-12.27999999999999</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Nara</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Ehime Orange Vikings</t>
+        </is>
+      </c>
+      <c r="E781" t="n">
+        <v>74</v>
+      </c>
+      <c r="F781" t="n">
+        <v>83</v>
+      </c>
+      <c r="G781" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I781" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J781" t="n">
+        <v>-13.27999999999999</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Nagasaki</t>
+        </is>
+      </c>
+      <c r="E782" t="n">
+        <v>102</v>
+      </c>
+      <c r="F782" t="n">
+        <v>69</v>
+      </c>
+      <c r="G782" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I782" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J782" t="n">
+        <v>-12.72999999999999</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Galitos Aveiro</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Imortal B</t>
+        </is>
+      </c>
+      <c r="E783" t="n">
+        <v>67</v>
+      </c>
+      <c r="F783" t="n">
+        <v>79</v>
+      </c>
+      <c r="G783" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I783" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J783" t="n">
+        <v>-13.72999999999999</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>OKK Beograd</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Mladost Zemun</t>
+        </is>
+      </c>
+      <c r="E784" t="n">
+        <v>96</v>
+      </c>
+      <c r="F784" t="n">
+        <v>95</v>
+      </c>
+      <c r="G784" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I784" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J784" t="n">
+        <v>-13.16999999999999</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Tangerang Hawks</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Bumi Borneo</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>80</v>
+      </c>
+      <c r="F785" t="n">
+        <v>89</v>
+      </c>
+      <c r="G785" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I785" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J785" t="n">
+        <v>-14.16999999999999</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Minyor</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Academic Plovdiv</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>84</v>
+      </c>
+      <c r="F786" t="n">
+        <v>88</v>
+      </c>
+      <c r="G786" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I786" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J786" t="n">
+        <v>-15.16999999999999</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>121</v>
+      </c>
+      <c r="F787" t="n">
+        <v>84</v>
+      </c>
+      <c r="G787" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I787" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J787" t="n">
+        <v>-14.61999999999999</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E788" t="n">
+        <v>114</v>
+      </c>
+      <c r="F788" t="n">
+        <v>110</v>
+      </c>
+      <c r="G788" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I788" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J788" t="n">
+        <v>-13.88999999999998</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Cremona</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>92</v>
+      </c>
+      <c r="F789" t="n">
+        <v>90</v>
+      </c>
+      <c r="G789" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I789" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J789" t="n">
+        <v>-12.48999999999998</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>150</v>
+      </c>
+      <c r="F790" t="n">
+        <v>145</v>
+      </c>
+      <c r="G790" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I790" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J790" t="n">
+        <v>-11.79999999999998</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Galil Elyon</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Hapoel Beer Sheva</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>80</v>
+      </c>
+      <c r="F791" t="n">
+        <v>87</v>
+      </c>
+      <c r="G791" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I791" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J791" t="n">
+        <v>-12.79999999999998</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>MZT Skopje</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>82</v>
+      </c>
+      <c r="F792" t="n">
+        <v>79</v>
+      </c>
+      <c r="G792" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I792" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J792" t="n">
+        <v>-12.13999999999998</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Marquette</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>81</v>
+      </c>
+      <c r="F793" t="n">
+        <v>77</v>
+      </c>
+      <c r="G793" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I793" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J793" t="n">
+        <v>-11.57999999999998</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Baylor</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Clemson</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>64</v>
+      </c>
+      <c r="F794" t="n">
+        <v>72</v>
+      </c>
+      <c r="G794" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I794" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J794" t="n">
+        <v>-12.57999999999998</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Northern Colorado</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Cleveland State</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>49</v>
+      </c>
+      <c r="F795" t="n">
+        <v>51</v>
+      </c>
+      <c r="G795" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I795" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J795" t="n">
+        <v>-13.57999999999998</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Evansville</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>63</v>
+      </c>
+      <c r="F796" t="n">
+        <v>64</v>
+      </c>
+      <c r="G796" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I796" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J796" t="n">
+        <v>-14.57999999999998</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Neptunas</t>
+        </is>
+      </c>
+      <c r="E797" t="n">
+        <v>83</v>
+      </c>
+      <c r="F797" t="n">
+        <v>96</v>
+      </c>
+      <c r="G797" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I797" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J797" t="n">
+        <v>-15.57999999999998</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Kozara F</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Zrinjski F</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>67</v>
+      </c>
+      <c r="F798" t="n">
+        <v>70</v>
+      </c>
+      <c r="G798" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I798" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J798" t="n">
+        <v>-16.57999999999998</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Orbi</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>TSU</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>89</v>
+      </c>
+      <c r="F799" t="n">
+        <v>101</v>
+      </c>
+      <c r="G799" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I799" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J799" t="n">
+        <v>-17.57999999999998</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Norrort</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>KFUM Fryshuset</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>77</v>
+      </c>
+      <c r="F800" t="n">
+        <v>89</v>
+      </c>
+      <c r="G800" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I800" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J800" t="n">
+        <v>-18.57999999999998</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>112</v>
+      </c>
+      <c r="F801" t="n">
+        <v>119</v>
+      </c>
+      <c r="G801" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I801" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J801" t="n">
+        <v>-19.57999999999998</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Beijing Royal Fighters</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>111</v>
+      </c>
+      <c r="F802" t="n">
+        <v>85</v>
+      </c>
+      <c r="G802" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I802" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J802" t="n">
+        <v>-18.71999999999998</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>111</v>
+      </c>
+      <c r="F803" t="n">
+        <v>97</v>
+      </c>
+      <c r="G803" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I803" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J803" t="n">
+        <v>-18.04999999999998</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>125</v>
+      </c>
+      <c r="F804" t="n">
+        <v>99</v>
+      </c>
+      <c r="G804" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I804" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J804" t="n">
+        <v>-16.77999999999998</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Obras</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>90</v>
+      </c>
+      <c r="F805" t="n">
+        <v>85</v>
+      </c>
+      <c r="G805" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I805" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J805" t="n">
+        <v>-16.23999999999998</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Pato</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Corinthians Paulista</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>100</v>
+      </c>
+      <c r="F806" t="n">
+        <v>87</v>
+      </c>
+      <c r="G806" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I806" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J806" t="n">
+        <v>-14.97999999999998</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>91</v>
+      </c>
+      <c r="F807" t="n">
+        <v>92</v>
+      </c>
+      <c r="G807" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I807" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J807" t="n">
+        <v>-15.97999999999998</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Newcastle Eagles</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Caledonia Gladiators</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>84</v>
+      </c>
+      <c r="F808" t="n">
+        <v>90</v>
+      </c>
+      <c r="G808" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I808" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J808" t="n">
+        <v>-16.97999999999998</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Runa Basket Moscow</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="E809" t="n">
+        <v>83</v>
+      </c>
+      <c r="F809" t="n">
+        <v>76</v>
+      </c>
+      <c r="G809" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I809" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J809" t="n">
+        <v>-16.19999999999998</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>79</v>
+      </c>
+      <c r="F810" t="n">
+        <v>87</v>
+      </c>
+      <c r="G810" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I810" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J810" t="n">
+        <v>-17.19999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J810"/>
+  <dimension ref="A1:J861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31226,6 +31226,1944 @@
         <v>-17.19999999999998</v>
       </c>
     </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Torun</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Dabrowa Gornicza</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>79</v>
+      </c>
+      <c r="F811" t="n">
+        <v>89</v>
+      </c>
+      <c r="G811" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I811" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J811" t="n">
+        <v>-18.19999999999998</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>LCC F</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Klaipedos Neptunas F</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>62</v>
+      </c>
+      <c r="F812" t="n">
+        <v>52</v>
+      </c>
+      <c r="G812" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I812" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J812" t="n">
+        <v>-17.62999999999998</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Arges Pitesti</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>66</v>
+      </c>
+      <c r="F813" t="n">
+        <v>70</v>
+      </c>
+      <c r="G813" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I813" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J813" t="n">
+        <v>-18.62999999999998</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>100</v>
+      </c>
+      <c r="F814" t="n">
+        <v>101</v>
+      </c>
+      <c r="G814" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I814" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J814" t="n">
+        <v>-19.62999999999998</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>109</v>
+      </c>
+      <c r="F815" t="n">
+        <v>90</v>
+      </c>
+      <c r="G815" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I815" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J815" t="n">
+        <v>-18.88999999999998</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Sampaense</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Imortal B</t>
+        </is>
+      </c>
+      <c r="E816" t="n">
+        <v>83</v>
+      </c>
+      <c r="F816" t="n">
+        <v>92</v>
+      </c>
+      <c r="G816" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I816" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J816" t="n">
+        <v>-19.88999999999998</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Sloga Pozega F</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Mega MIS F</t>
+        </is>
+      </c>
+      <c r="E817" t="n">
+        <v>63</v>
+      </c>
+      <c r="F817" t="n">
+        <v>77</v>
+      </c>
+      <c r="G817" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I817" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J817" t="n">
+        <v>-20.88999999999998</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Budapesti Honved Se</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Zalakeramia</t>
+        </is>
+      </c>
+      <c r="E818" t="n">
+        <v>76</v>
+      </c>
+      <c r="F818" t="n">
+        <v>75</v>
+      </c>
+      <c r="G818" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I818" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J818" t="n">
+        <v>-20.19999999999998</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>KK Triglav Kranj</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Hopsi Polzela</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>66</v>
+      </c>
+      <c r="F819" t="n">
+        <v>81</v>
+      </c>
+      <c r="G819" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I819" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J819" t="n">
+        <v>-21.19999999999998</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Tajfun Sentjur</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Podcetrtek</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>79</v>
+      </c>
+      <c r="F820" t="n">
+        <v>88</v>
+      </c>
+      <c r="G820" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I820" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J820" t="n">
+        <v>-22.19999999999998</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Gunma</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>84</v>
+      </c>
+      <c r="F821" t="n">
+        <v>79</v>
+      </c>
+      <c r="G821" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I821" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J821" t="n">
+        <v>-21.53999999999998</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Brave Thunders</t>
+        </is>
+      </c>
+      <c r="E822" t="n">
+        <v>95</v>
+      </c>
+      <c r="F822" t="n">
+        <v>71</v>
+      </c>
+      <c r="G822" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I822" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J822" t="n">
+        <v>-20.24999999999998</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Batumi</t>
+        </is>
+      </c>
+      <c r="E823" t="n">
+        <v>93</v>
+      </c>
+      <c r="F823" t="n">
+        <v>89</v>
+      </c>
+      <c r="G823" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I823" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J823" t="n">
+        <v>-19.63999999999998</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Kobe</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>Shizuoka</t>
+        </is>
+      </c>
+      <c r="E824" t="n">
+        <v>91</v>
+      </c>
+      <c r="F824" t="n">
+        <v>71</v>
+      </c>
+      <c r="G824" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I824" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J824" t="n">
+        <v>-19.01999999999998</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Deportes Castro</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="E825" t="n">
+        <v>68</v>
+      </c>
+      <c r="F825" t="n">
+        <v>71</v>
+      </c>
+      <c r="G825" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I825" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J825" t="n">
+        <v>-20.01999999999998</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="E826" t="n">
+        <v>87</v>
+      </c>
+      <c r="F826" t="n">
+        <v>82</v>
+      </c>
+      <c r="G826" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I826" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J826" t="n">
+        <v>-19.47999999999998</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Oldenburg</t>
+        </is>
+      </c>
+      <c r="E827" t="n">
+        <v>64</v>
+      </c>
+      <c r="F827" t="n">
+        <v>99</v>
+      </c>
+      <c r="G827" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I827" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J827" t="n">
+        <v>-20.47999999999998</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E828" t="n">
+        <v>112</v>
+      </c>
+      <c r="F828" t="n">
+        <v>113</v>
+      </c>
+      <c r="G828" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I828" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J828" t="n">
+        <v>-21.47999999999998</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E829" t="n">
+        <v>107</v>
+      </c>
+      <c r="F829" t="n">
+        <v>125</v>
+      </c>
+      <c r="G829" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I829" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J829" t="n">
+        <v>-22.47999999999998</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Gottingen</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="E830" t="n">
+        <v>75</v>
+      </c>
+      <c r="F830" t="n">
+        <v>73</v>
+      </c>
+      <c r="G830" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I830" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J830" t="n">
+        <v>-21.66999999999998</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>USK Prague F</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>Hradec Kralove F</t>
+        </is>
+      </c>
+      <c r="E831" t="n">
+        <v>95</v>
+      </c>
+      <c r="F831" t="n">
+        <v>48</v>
+      </c>
+      <c r="G831" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I831" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J831" t="n">
+        <v>-21.05999999999998</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E832" t="n">
+        <v>109</v>
+      </c>
+      <c r="F832" t="n">
+        <v>99</v>
+      </c>
+      <c r="G832" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I832" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J832" t="n">
+        <v>-20.34999999999998</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>109</v>
+      </c>
+      <c r="F833" t="n">
+        <v>105</v>
+      </c>
+      <c r="G833" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I833" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J833" t="n">
+        <v>-18.57999999999998</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>104</v>
+      </c>
+      <c r="F834" t="n">
+        <v>100</v>
+      </c>
+      <c r="G834" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I834" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J834" t="n">
+        <v>-17.64999999999998</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Uralmash Ekaterinburg</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>64</v>
+      </c>
+      <c r="F835" t="n">
+        <v>82</v>
+      </c>
+      <c r="G835" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I835" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J835" t="n">
+        <v>-18.64999999999998</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Prijedor</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>Slavija</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>87</v>
+      </c>
+      <c r="F836" t="n">
+        <v>80</v>
+      </c>
+      <c r="G836" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I836" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J836" t="n">
+        <v>-18.08999999999999</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Orlovik</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>93</v>
+      </c>
+      <c r="F837" t="n">
+        <v>73</v>
+      </c>
+      <c r="G837" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I837" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J837" t="n">
+        <v>-16.93999999999999</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Caballeros de Culiacan</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>Pioneros de Los Mochis</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>84</v>
+      </c>
+      <c r="F838" t="n">
+        <v>90</v>
+      </c>
+      <c r="G838" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I838" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J838" t="n">
+        <v>-17.93999999999999</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Thorl</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>Keflavik</t>
+        </is>
+      </c>
+      <c r="E839" t="n">
+        <v>106</v>
+      </c>
+      <c r="F839" t="n">
+        <v>100</v>
+      </c>
+      <c r="G839" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I839" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J839" t="n">
+        <v>-17.19999999999999</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>BC Nokia F</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>Puhuttaret F</t>
+        </is>
+      </c>
+      <c r="E840" t="n">
+        <v>77</v>
+      </c>
+      <c r="F840" t="n">
+        <v>75</v>
+      </c>
+      <c r="G840" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I840" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J840" t="n">
+        <v>-16.54999999999999</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="E841" t="n">
+        <v>72</v>
+      </c>
+      <c r="F841" t="n">
+        <v>62</v>
+      </c>
+      <c r="G841" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I841" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J841" t="n">
+        <v>-15.98999999999999</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Angers F</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>Tarbes GB F</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
+        <v>71</v>
+      </c>
+      <c r="F842" t="n">
+        <v>66</v>
+      </c>
+      <c r="G842" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I842" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J842" t="n">
+        <v>-15.43999999999999</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>Real Bétis</t>
+        </is>
+      </c>
+      <c r="E843" t="n">
+        <v>86</v>
+      </c>
+      <c r="F843" t="n">
+        <v>81</v>
+      </c>
+      <c r="G843" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I843" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J843" t="n">
+        <v>-14.60999999999999</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Decin</t>
+        </is>
+      </c>
+      <c r="E844" t="n">
+        <v>77</v>
+      </c>
+      <c r="F844" t="n">
+        <v>79</v>
+      </c>
+      <c r="G844" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I844" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J844" t="n">
+        <v>-15.60999999999999</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>Fubon Braves</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>New Taipei Kings</t>
+        </is>
+      </c>
+      <c r="E845" t="n">
+        <v>122</v>
+      </c>
+      <c r="F845" t="n">
+        <v>96</v>
+      </c>
+      <c r="G845" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I845" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J845" t="n">
+        <v>-14.55999999999999</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>116</v>
+      </c>
+      <c r="F846" t="n">
+        <v>97</v>
+      </c>
+      <c r="G846" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I846" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J846" t="n">
+        <v>-14.01999999999999</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>Balkan</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>80</v>
+      </c>
+      <c r="F847" t="n">
+        <v>92</v>
+      </c>
+      <c r="G847" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I847" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J847" t="n">
+        <v>-15.01999999999999</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Minyor</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>Shumen</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>97</v>
+      </c>
+      <c r="F848" t="n">
+        <v>87</v>
+      </c>
+      <c r="G848" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I848" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J848" t="n">
+        <v>-13.88999999999999</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Brave Thunders</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="E849" t="n">
+        <v>87</v>
+      </c>
+      <c r="F849" t="n">
+        <v>98</v>
+      </c>
+      <c r="G849" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I849" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J849" t="n">
+        <v>-14.88999999999999</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Runa Basket Moscow</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>MBA Moscow</t>
+        </is>
+      </c>
+      <c r="E850" t="n">
+        <v>75</v>
+      </c>
+      <c r="F850" t="n">
+        <v>82</v>
+      </c>
+      <c r="G850" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I850" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J850" t="n">
+        <v>-15.88999999999999</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>OKK Novi Pazar</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Sloga</t>
+        </is>
+      </c>
+      <c r="E851" t="n">
+        <v>67</v>
+      </c>
+      <c r="F851" t="n">
+        <v>79</v>
+      </c>
+      <c r="G851" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I851" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J851" t="n">
+        <v>-16.88999999999999</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Novosadska Novi Sad F</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>ZKK Kraljevo F</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>89</v>
+      </c>
+      <c r="F852" t="n">
+        <v>92</v>
+      </c>
+      <c r="G852" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I852" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J852" t="n">
+        <v>-17.88999999999999</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Tureberg</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>Malbas</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>83</v>
+      </c>
+      <c r="F853" t="n">
+        <v>69</v>
+      </c>
+      <c r="G853" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I853" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J853" t="n">
+        <v>-17.33999999999999</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>Næstved</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>86</v>
+      </c>
+      <c r="F854" t="n">
+        <v>101</v>
+      </c>
+      <c r="G854" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I854" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J854" t="n">
+        <v>-18.33999999999999</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>Maccabi Rishon</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>81</v>
+      </c>
+      <c r="F855" t="n">
+        <v>86</v>
+      </c>
+      <c r="G855" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I855" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J855" t="n">
+        <v>-19.33999999999999</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Rayos de Hermosillo</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>Astros</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>76</v>
+      </c>
+      <c r="F856" t="n">
+        <v>102</v>
+      </c>
+      <c r="G856" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I856" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J856" t="n">
+        <v>-20.33999999999999</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>92</v>
+      </c>
+      <c r="F857" t="n">
+        <v>105</v>
+      </c>
+      <c r="G857" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I857" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J857" t="n">
+        <v>-21.33999999999999</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>MBA Moscow 2</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>Tambov</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>64</v>
+      </c>
+      <c r="F858" t="n">
+        <v>74</v>
+      </c>
+      <c r="G858" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I858" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J858" t="n">
+        <v>-22.33999999999999</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Rayos de Hermosillo</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>Astros</t>
+        </is>
+      </c>
+      <c r="E859" t="n">
+        <v>100</v>
+      </c>
+      <c r="F859" t="n">
+        <v>92</v>
+      </c>
+      <c r="G859" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I859" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J859" t="n">
+        <v>-21.24999999999999</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Hokkaido</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>Ibaraki Robots</t>
+        </is>
+      </c>
+      <c r="E860" t="n">
+        <v>79</v>
+      </c>
+      <c r="F860" t="n">
+        <v>70</v>
+      </c>
+      <c r="G860" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I860" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J860" t="n">
+        <v>-20.30999999999999</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>São José F</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>Blumenau F</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>68</v>
+      </c>
+      <c r="F861" t="n">
+        <v>78</v>
+      </c>
+      <c r="G861" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I861" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J861" t="n">
+        <v>-21.30999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J861"/>
+  <dimension ref="A1:J896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33164,6 +33164,1336 @@
         <v>-21.30999999999999</v>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>Obera TC</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>74</v>
+      </c>
+      <c r="F862" t="n">
+        <v>57</v>
+      </c>
+      <c r="G862" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I862" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J862" t="n">
+        <v>-20.76999999999999</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>109</v>
+      </c>
+      <c r="F863" t="n">
+        <v>118</v>
+      </c>
+      <c r="G863" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I863" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J863" t="n">
+        <v>-21.76999999999999</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>Pau-Orthez</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>76</v>
+      </c>
+      <c r="F864" t="n">
+        <v>79</v>
+      </c>
+      <c r="G864" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I864" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J864" t="n">
+        <v>-22.76999999999999</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Sheffield Sharks</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>Caledonia Gladiators</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>69</v>
+      </c>
+      <c r="F865" t="n">
+        <v>62</v>
+      </c>
+      <c r="G865" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I865" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J865" t="n">
+        <v>-22.11999999999999</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>109</v>
+      </c>
+      <c r="F866" t="n">
+        <v>114</v>
+      </c>
+      <c r="G866" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I866" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J866" t="n">
+        <v>-23.11999999999999</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Limburg</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>Leiden</t>
+        </is>
+      </c>
+      <c r="E867" t="n">
+        <v>66</v>
+      </c>
+      <c r="F867" t="n">
+        <v>75</v>
+      </c>
+      <c r="G867" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I867" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J867" t="n">
+        <v>-24.11999999999999</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Neptunas</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>Lietkabelis</t>
+        </is>
+      </c>
+      <c r="E868" t="n">
+        <v>88</v>
+      </c>
+      <c r="F868" t="n">
+        <v>84</v>
+      </c>
+      <c r="G868" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I868" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J868" t="n">
+        <v>-23.33999999999999</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Formosa Dreamers</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>New Taipei Kings</t>
+        </is>
+      </c>
+      <c r="E869" t="n">
+        <v>94</v>
+      </c>
+      <c r="F869" t="n">
+        <v>116</v>
+      </c>
+      <c r="G869" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I869" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J869" t="n">
+        <v>-24.33999999999999</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>CD Póvoa</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>90</v>
+      </c>
+      <c r="F870" t="n">
+        <v>81</v>
+      </c>
+      <c r="G870" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I870" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J870" t="n">
+        <v>-22.71999999999999</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>CAB Madeira</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>Maia</t>
+        </is>
+      </c>
+      <c r="E871" t="n">
+        <v>88</v>
+      </c>
+      <c r="F871" t="n">
+        <v>44</v>
+      </c>
+      <c r="G871" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I871" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J871" t="n">
+        <v>-22.02999999999999</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Alkar</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>GKK Sibenka</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>101</v>
+      </c>
+      <c r="F872" t="n">
+        <v>109</v>
+      </c>
+      <c r="G872" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I872" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J872" t="n">
+        <v>-23.02999999999999</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>TNT Tropang Giga</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>NLEX Road Warriors</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>104</v>
+      </c>
+      <c r="F873" t="n">
+        <v>101</v>
+      </c>
+      <c r="G873" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I873" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J873" t="n">
+        <v>-22.08999999999999</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Al Muharraq</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>Al Ahli</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>95</v>
+      </c>
+      <c r="F874" t="n">
+        <v>82</v>
+      </c>
+      <c r="G874" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I874" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J874" t="n">
+        <v>-21.09999999999999</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>83</v>
+      </c>
+      <c r="F875" t="n">
+        <v>93</v>
+      </c>
+      <c r="G875" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I875" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J875" t="n">
+        <v>-22.09999999999999</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Huddinge</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Sloga Uppsala</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>74</v>
+      </c>
+      <c r="F876" t="n">
+        <v>109</v>
+      </c>
+      <c r="G876" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I876" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J876" t="n">
+        <v>-23.09999999999999</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Formosa Dreamers</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>Taoyuan Pauian Pilots</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>97</v>
+      </c>
+      <c r="F877" t="n">
+        <v>80</v>
+      </c>
+      <c r="G877" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I877" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J877" t="n">
+        <v>-22.21999999999999</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Scafati</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>Varese</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>102</v>
+      </c>
+      <c r="F878" t="n">
+        <v>90</v>
+      </c>
+      <c r="G878" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I878" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J878" t="n">
+        <v>-21.60999999999999</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>San Martin</t>
+        </is>
+      </c>
+      <c r="E879" t="n">
+        <v>69</v>
+      </c>
+      <c r="F879" t="n">
+        <v>76</v>
+      </c>
+      <c r="G879" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I879" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J879" t="n">
+        <v>-22.60999999999999</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E880" t="n">
+        <v>105</v>
+      </c>
+      <c r="F880" t="n">
+        <v>116</v>
+      </c>
+      <c r="G880" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I880" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J880" t="n">
+        <v>-23.60999999999999</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E881" t="n">
+        <v>106</v>
+      </c>
+      <c r="F881" t="n">
+        <v>125</v>
+      </c>
+      <c r="G881" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I881" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J881" t="n">
+        <v>-24.60999999999999</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>Lavrio</t>
+        </is>
+      </c>
+      <c r="E882" t="n">
+        <v>100</v>
+      </c>
+      <c r="F882" t="n">
+        <v>67</v>
+      </c>
+      <c r="G882" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I882" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J882" t="n">
+        <v>-23.85999999999999</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>BMS Herlev F</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>Amager F</t>
+        </is>
+      </c>
+      <c r="E883" t="n">
+        <v>61</v>
+      </c>
+      <c r="F883" t="n">
+        <v>63</v>
+      </c>
+      <c r="G883" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I883" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J883" t="n">
+        <v>-24.85999999999999</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="E884" t="n">
+        <v>52</v>
+      </c>
+      <c r="F884" t="n">
+        <v>93</v>
+      </c>
+      <c r="G884" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I884" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J884" t="n">
+        <v>-25.85999999999999</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Wonju DB</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="E885" t="n">
+        <v>80</v>
+      </c>
+      <c r="F885" t="n">
+        <v>71</v>
+      </c>
+      <c r="G885" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I885" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J885" t="n">
+        <v>-25.27999999999999</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Vechta 2</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>Koblenz</t>
+        </is>
+      </c>
+      <c r="E886" t="n">
+        <v>67</v>
+      </c>
+      <c r="F886" t="n">
+        <v>60</v>
+      </c>
+      <c r="G886" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I886" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J886" t="n">
+        <v>-24.72999999999999</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>Shimane</t>
+        </is>
+      </c>
+      <c r="E887" t="n">
+        <v>80</v>
+      </c>
+      <c r="F887" t="n">
+        <v>92</v>
+      </c>
+      <c r="G887" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I887" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J887" t="n">
+        <v>-25.72999999999999</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Nevezis</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Jonava</t>
+        </is>
+      </c>
+      <c r="E888" t="n">
+        <v>116</v>
+      </c>
+      <c r="F888" t="n">
+        <v>83</v>
+      </c>
+      <c r="G888" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I888" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J888" t="n">
+        <v>-24.57999999999999</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>Indios de Mayaguez</t>
+        </is>
+      </c>
+      <c r="E889" t="n">
+        <v>85</v>
+      </c>
+      <c r="F889" t="n">
+        <v>81</v>
+      </c>
+      <c r="G889" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I889" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J889" t="n">
+        <v>-24.01999999999999</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Kyiv Basket</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Cherkaski Mavpy</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>101</v>
+      </c>
+      <c r="F890" t="n">
+        <v>99</v>
+      </c>
+      <c r="G890" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I890" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J890" t="n">
+        <v>-23.13999999999999</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Jamtland</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Borås</t>
+        </is>
+      </c>
+      <c r="E891" t="n">
+        <v>86</v>
+      </c>
+      <c r="F891" t="n">
+        <v>75</v>
+      </c>
+      <c r="G891" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I891" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J891" t="n">
+        <v>-22.49999999999999</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Newcastle Eagles</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>Cheshire Phoenix</t>
+        </is>
+      </c>
+      <c r="E892" t="n">
+        <v>104</v>
+      </c>
+      <c r="F892" t="n">
+        <v>89</v>
+      </c>
+      <c r="G892" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I892" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J892" t="n">
+        <v>-21.36999999999999</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Ginebra Kings</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>TNT Tropang Giga</t>
+        </is>
+      </c>
+      <c r="E893" t="n">
+        <v>87</v>
+      </c>
+      <c r="F893" t="n">
+        <v>83</v>
+      </c>
+      <c r="G893" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I893" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J893" t="n">
+        <v>-20.66999999999999</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>TSU</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>Kavkasia</t>
+        </is>
+      </c>
+      <c r="E894" t="n">
+        <v>100</v>
+      </c>
+      <c r="F894" t="n">
+        <v>94</v>
+      </c>
+      <c r="G894" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I894" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J894" t="n">
+        <v>-20.11</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Slavija</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>Prijedor</t>
+        </is>
+      </c>
+      <c r="E895" t="n">
+        <v>83</v>
+      </c>
+      <c r="F895" t="n">
+        <v>73</v>
+      </c>
+      <c r="G895" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I895" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J895" t="n">
+        <v>-19.55</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Imortal</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Ovarense</t>
+        </is>
+      </c>
+      <c r="E896" t="n">
+        <v>82</v>
+      </c>
+      <c r="F896" t="n">
+        <v>97</v>
+      </c>
+      <c r="G896" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I896" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J896" t="n">
+        <v>-20.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J896"/>
+  <dimension ref="A1:J948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34494,6 +34494,1982 @@
         <v>-20.55</v>
       </c>
     </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>105</v>
+      </c>
+      <c r="F897" t="n">
+        <v>82</v>
+      </c>
+      <c r="G897" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I897" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J897" t="n">
+        <v>-19.82</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>LTH Castings</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>81</v>
+      </c>
+      <c r="F898" t="n">
+        <v>69</v>
+      </c>
+      <c r="G898" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I898" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J898" t="n">
+        <v>-19.27</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Brave Thunders</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Sun Rockers Shibuya</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>77</v>
+      </c>
+      <c r="F899" t="n">
+        <v>79</v>
+      </c>
+      <c r="G899" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I899" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J899" t="n">
+        <v>-20.27</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>San Giovanni F</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Campobasso F</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>62</v>
+      </c>
+      <c r="F900" t="n">
+        <v>65</v>
+      </c>
+      <c r="G900" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I900" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J900" t="n">
+        <v>-21.27</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>New Taipei Kings</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>Taoyuan Pauian Pilots</t>
+        </is>
+      </c>
+      <c r="E901" t="n">
+        <v>94</v>
+      </c>
+      <c r="F901" t="n">
+        <v>76</v>
+      </c>
+      <c r="G901" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I901" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J901" t="n">
+        <v>-20.21</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Scafati</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>Sassari</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>74</v>
+      </c>
+      <c r="F902" t="n">
+        <v>99</v>
+      </c>
+      <c r="G902" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I902" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J902" t="n">
+        <v>-21.21</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Meralco Bolts</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>Magnolia Hotshots</t>
+        </is>
+      </c>
+      <c r="E903" t="n">
+        <v>74</v>
+      </c>
+      <c r="F903" t="n">
+        <v>51</v>
+      </c>
+      <c r="G903" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I903" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J903" t="n">
+        <v>-19.67</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Castello</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>70</v>
+      </c>
+      <c r="F904" t="n">
+        <v>64</v>
+      </c>
+      <c r="G904" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I904" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J904" t="n">
+        <v>-18.02</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Bendigo Braves</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>Ringwood</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>77</v>
+      </c>
+      <c r="F905" t="n">
+        <v>89</v>
+      </c>
+      <c r="G905" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I905" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J905" t="n">
+        <v>-19.02</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>89</v>
+      </c>
+      <c r="F906" t="n">
+        <v>97</v>
+      </c>
+      <c r="G906" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I906" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J906" t="n">
+        <v>-20.02</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>Tabiat</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>68</v>
+      </c>
+      <c r="F907" t="n">
+        <v>64</v>
+      </c>
+      <c r="G907" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I907" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J907" t="n">
+        <v>-19.28</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>89</v>
+      </c>
+      <c r="F908" t="n">
+        <v>84</v>
+      </c>
+      <c r="G908" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I908" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J908" t="n">
+        <v>-18.58</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Obera TC</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>Olimpico</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>85</v>
+      </c>
+      <c r="F909" t="n">
+        <v>74</v>
+      </c>
+      <c r="G909" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I909" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J909" t="n">
+        <v>-17.46</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Gravelines-Dunkerque</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>JL Bourg</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>64</v>
+      </c>
+      <c r="F910" t="n">
+        <v>75</v>
+      </c>
+      <c r="G910" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I910" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J910" t="n">
+        <v>-18.46</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Cibona</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>Zabok</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>92</v>
+      </c>
+      <c r="F911" t="n">
+        <v>75</v>
+      </c>
+      <c r="G911" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I911" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J911" t="n">
+        <v>-17.81</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Chalons-Reims</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>Vichy</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>100</v>
+      </c>
+      <c r="F912" t="n">
+        <v>77</v>
+      </c>
+      <c r="G912" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I912" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J912" t="n">
+        <v>-17.24</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Pelister</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>75</v>
+      </c>
+      <c r="F913" t="n">
+        <v>69</v>
+      </c>
+      <c r="G913" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I913" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J913" t="n">
+        <v>-16.64</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Campinas F</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>Corinthians F</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>64</v>
+      </c>
+      <c r="F914" t="n">
+        <v>62</v>
+      </c>
+      <c r="G914" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I914" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J914" t="n">
+        <v>-16.09</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Akita</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>72</v>
+      </c>
+      <c r="F915" t="n">
+        <v>88</v>
+      </c>
+      <c r="G915" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I915" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J915" t="n">
+        <v>-17.09</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Nanterre</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>67</v>
+      </c>
+      <c r="F916" t="n">
+        <v>87</v>
+      </c>
+      <c r="G916" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I916" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J916" t="n">
+        <v>-18.09</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Szczecin</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>80</v>
+      </c>
+      <c r="F917" t="n">
+        <v>77</v>
+      </c>
+      <c r="G917" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I917" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J917" t="n">
+        <v>-17.42</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Hsinchu Jko Lioneers</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>New Taipei Kings</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>88</v>
+      </c>
+      <c r="F918" t="n">
+        <v>98</v>
+      </c>
+      <c r="G918" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I918" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J918" t="n">
+        <v>-18.42</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>Regatas</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>86</v>
+      </c>
+      <c r="F919" t="n">
+        <v>60</v>
+      </c>
+      <c r="G919" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I919" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J919" t="n">
+        <v>-17.81</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Nunawading F</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>Diamond Valley F</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>81</v>
+      </c>
+      <c r="F920" t="n">
+        <v>74</v>
+      </c>
+      <c r="G920" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I920" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J920" t="n">
+        <v>-16.59</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Gornik Walbrzych</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>86</v>
+      </c>
+      <c r="F921" t="n">
+        <v>73</v>
+      </c>
+      <c r="G921" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I921" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J921" t="n">
+        <v>-15.98</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Ironi Kiryat Ata</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>67</v>
+      </c>
+      <c r="F922" t="n">
+        <v>84</v>
+      </c>
+      <c r="G922" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I922" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J922" t="n">
+        <v>-16.98</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>H. Haifa</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Hapoel Beer Sheva</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>93</v>
+      </c>
+      <c r="F923" t="n">
+        <v>89</v>
+      </c>
+      <c r="G923" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I923" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J923" t="n">
+        <v>-16.37</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Sebastiani Rieti</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>73</v>
+      </c>
+      <c r="F924" t="n">
+        <v>69</v>
+      </c>
+      <c r="G924" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I924" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J924" t="n">
+        <v>-15.76</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Basket Torino</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>Trieste</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>84</v>
+      </c>
+      <c r="F925" t="n">
+        <v>87</v>
+      </c>
+      <c r="G925" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I925" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J925" t="n">
+        <v>-16.76</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Taiwan Beer Leopards</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>Kaohsiung Aquas</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>107</v>
+      </c>
+      <c r="F926" t="n">
+        <v>98</v>
+      </c>
+      <c r="G926" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I926" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J926" t="n">
+        <v>-15.96</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>93</v>
+      </c>
+      <c r="F927" t="n">
+        <v>81</v>
+      </c>
+      <c r="G927" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I927" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J927" t="n">
+        <v>-15.13</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Decin</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Usti n. Labem</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>102</v>
+      </c>
+      <c r="F928" t="n">
+        <v>73</v>
+      </c>
+      <c r="G928" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I928" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J928" t="n">
+        <v>-14.56</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Cedevita</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>89</v>
+      </c>
+      <c r="F929" t="n">
+        <v>100</v>
+      </c>
+      <c r="G929" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I929" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J929" t="n">
+        <v>-15.56</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Antibes</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>Boulazac</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>66</v>
+      </c>
+      <c r="F930" t="n">
+        <v>58</v>
+      </c>
+      <c r="G930" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I930" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J930" t="n">
+        <v>-14.97</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>75</v>
+      </c>
+      <c r="F931" t="n">
+        <v>61</v>
+      </c>
+      <c r="G931" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I931" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J931" t="n">
+        <v>-14.42</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Zarate</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>Gimnasia</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>78</v>
+      </c>
+      <c r="F932" t="n">
+        <v>69</v>
+      </c>
+      <c r="G932" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I932" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J932" t="n">
+        <v>-13.05</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Hobart Chargers F</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>Melbourne Tigers F</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>68</v>
+      </c>
+      <c r="F933" t="n">
+        <v>72</v>
+      </c>
+      <c r="G933" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I933" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J933" t="n">
+        <v>-14.05</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Maccabi Ironi Ramat Gan</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>Hapoel Holon</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>83</v>
+      </c>
+      <c r="F934" t="n">
+        <v>84</v>
+      </c>
+      <c r="G934" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I934" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J934" t="n">
+        <v>-15.05</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>Vaqueros de Bayamon</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>63</v>
+      </c>
+      <c r="F935" t="n">
+        <v>68</v>
+      </c>
+      <c r="G935" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I935" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J935" t="n">
+        <v>-16.05</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Formosa Dreamers</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>Fubon Braves</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
+        <v>85</v>
+      </c>
+      <c r="F936" t="n">
+        <v>81</v>
+      </c>
+      <c r="G936" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I936" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J936" t="n">
+        <v>-15.39</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>NW Tasmania</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>Melbourne Tigers</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>74</v>
+      </c>
+      <c r="F937" t="n">
+        <v>84</v>
+      </c>
+      <c r="G937" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I937" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J937" t="n">
+        <v>-16.39</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Lakeside Lightning F</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>Willetton Tigers F</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
+        <v>97</v>
+      </c>
+      <c r="F938" t="n">
+        <v>79</v>
+      </c>
+      <c r="G938" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I938" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J938" t="n">
+        <v>-15.73</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Dabrowa Gornicza</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>Trefl Sopot</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>93</v>
+      </c>
+      <c r="F939" t="n">
+        <v>101</v>
+      </c>
+      <c r="G939" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I939" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J939" t="n">
+        <v>-16.73</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Luiss Roma</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>Agrigento</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>85</v>
+      </c>
+      <c r="F940" t="n">
+        <v>61</v>
+      </c>
+      <c r="G940" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I940" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J940" t="n">
+        <v>-16.13</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Stadio Italiano</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Arabe Valparaiso</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>96</v>
+      </c>
+      <c r="F941" t="n">
+        <v>56</v>
+      </c>
+      <c r="G941" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I941" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J941" t="n">
+        <v>-15.56</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Las Animas</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>CD Puerto Varas</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>84</v>
+      </c>
+      <c r="F942" t="n">
+        <v>82</v>
+      </c>
+      <c r="G942" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I942" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J942" t="n">
+        <v>-13.88</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>107</v>
+      </c>
+      <c r="F943" t="n">
+        <v>115</v>
+      </c>
+      <c r="G943" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I943" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J943" t="n">
+        <v>-14.88</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Helsinki Seagulls</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>BC Nokia</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>85</v>
+      </c>
+      <c r="F944" t="n">
+        <v>79</v>
+      </c>
+      <c r="G944" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I944" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J944" t="n">
+        <v>-14.31</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Meralco Bolts</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>NLEX Road Warriors</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>100</v>
+      </c>
+      <c r="F945" t="n">
+        <v>81</v>
+      </c>
+      <c r="G945" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I945" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J945" t="n">
+        <v>-13.68</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Newcastle Falcons F</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>Manly W. F</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>73</v>
+      </c>
+      <c r="F946" t="n">
+        <v>78</v>
+      </c>
+      <c r="G946" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I946" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J946" t="n">
+        <v>-14.68</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>68</v>
+      </c>
+      <c r="F947" t="n">
+        <v>85</v>
+      </c>
+      <c r="G947" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I947" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J947" t="n">
+        <v>-15.68</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Vaqueros de Bayamon</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>78</v>
+      </c>
+      <c r="F948" t="n">
+        <v>89</v>
+      </c>
+      <c r="G948" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I948" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J948" t="n">
+        <v>-16.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J948"/>
+  <dimension ref="A1:J1028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36470,6 +36470,3046 @@
         <v>-16.68</v>
       </c>
     </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Halcones de Obregon</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>Angeles CDMX</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>103</v>
+      </c>
+      <c r="F949" t="n">
+        <v>116</v>
+      </c>
+      <c r="G949" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I949" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J949" t="n">
+        <v>-17.68</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>San German</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>85</v>
+      </c>
+      <c r="F950" t="n">
+        <v>87</v>
+      </c>
+      <c r="G950" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I950" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J950" t="n">
+        <v>-18.68</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>La Union</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>92</v>
+      </c>
+      <c r="F951" t="n">
+        <v>79</v>
+      </c>
+      <c r="G951" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I951" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J951" t="n">
+        <v>-17.97</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>Lietkabelis</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>99</v>
+      </c>
+      <c r="F952" t="n">
+        <v>100</v>
+      </c>
+      <c r="G952" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I952" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J952" t="n">
+        <v>-18.97</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Pärnu</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>Rapla</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>59</v>
+      </c>
+      <c r="F953" t="n">
+        <v>68</v>
+      </c>
+      <c r="G953" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I953" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J953" t="n">
+        <v>-19.97</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>CD Puerto Varas</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>Las Animas</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>75</v>
+      </c>
+      <c r="F954" t="n">
+        <v>83</v>
+      </c>
+      <c r="G954" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I954" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J954" t="n">
+        <v>-20.97</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>62</v>
+      </c>
+      <c r="F955" t="n">
+        <v>95</v>
+      </c>
+      <c r="G955" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I955" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J955" t="n">
+        <v>-21.97</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>90</v>
+      </c>
+      <c r="F956" t="n">
+        <v>77</v>
+      </c>
+      <c r="G956" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I956" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J956" t="n">
+        <v>-21.29</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>South West Metro Pirates</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>Southern District</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>79</v>
+      </c>
+      <c r="F957" t="n">
+        <v>90</v>
+      </c>
+      <c r="G957" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I957" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J957" t="n">
+        <v>-22.29</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>Criollos de Caguas</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>106</v>
+      </c>
+      <c r="F958" t="n">
+        <v>82</v>
+      </c>
+      <c r="G958" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I958" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J958" t="n">
+        <v>-21.24</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Knox F</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>Mt. Gambier F</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>63</v>
+      </c>
+      <c r="F959" t="n">
+        <v>81</v>
+      </c>
+      <c r="G959" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I959" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J959" t="n">
+        <v>-22.24</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>83</v>
+      </c>
+      <c r="F960" t="n">
+        <v>67</v>
+      </c>
+      <c r="G960" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I960" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J960" t="n">
+        <v>-21.21</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>San Martin</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>64</v>
+      </c>
+      <c r="F961" t="n">
+        <v>72</v>
+      </c>
+      <c r="G961" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I961" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J961" t="n">
+        <v>-22.21</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>La Union</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>Obras</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>87</v>
+      </c>
+      <c r="F962" t="n">
+        <v>88</v>
+      </c>
+      <c r="G962" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I962" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J962" t="n">
+        <v>-23.21</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>92</v>
+      </c>
+      <c r="F963" t="n">
+        <v>87</v>
+      </c>
+      <c r="G963" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I963" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J963" t="n">
+        <v>-22.63</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="E964" t="n">
+        <v>82</v>
+      </c>
+      <c r="F964" t="n">
+        <v>101</v>
+      </c>
+      <c r="G964" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I964" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J964" t="n">
+        <v>-23.63</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Chernomorets</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="E965" t="n">
+        <v>92</v>
+      </c>
+      <c r="F965" t="n">
+        <v>81</v>
+      </c>
+      <c r="G965" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I965" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J965" t="n">
+        <v>-22.97</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="E966" t="n">
+        <v>95</v>
+      </c>
+      <c r="F966" t="n">
+        <v>104</v>
+      </c>
+      <c r="G966" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I966" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J966" t="n">
+        <v>-23.97</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Hapoel Beer Sheva</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>H. Afula</t>
+        </is>
+      </c>
+      <c r="E967" t="n">
+        <v>90</v>
+      </c>
+      <c r="F967" t="n">
+        <v>87</v>
+      </c>
+      <c r="G967" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I967" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J967" t="n">
+        <v>-23.34</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="E968" t="n">
+        <v>67</v>
+      </c>
+      <c r="F968" t="n">
+        <v>84</v>
+      </c>
+      <c r="G968" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I968" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J968" t="n">
+        <v>-24.34</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Ginebra Kings</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>Meralco Bolts</t>
+        </is>
+      </c>
+      <c r="E969" t="n">
+        <v>90</v>
+      </c>
+      <c r="F969" t="n">
+        <v>71</v>
+      </c>
+      <c r="G969" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I969" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J969" t="n">
+        <v>-23.69</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Formosa Dreamers</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>New Taipei Kings</t>
+        </is>
+      </c>
+      <c r="E970" t="n">
+        <v>89</v>
+      </c>
+      <c r="F970" t="n">
+        <v>88</v>
+      </c>
+      <c r="G970" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I970" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J970" t="n">
+        <v>-22.94</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E971" t="n">
+        <v>73</v>
+      </c>
+      <c r="F971" t="n">
+        <v>57</v>
+      </c>
+      <c r="G971" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I971" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J971" t="n">
+        <v>-22.17</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>Hapoel Tel-Aviv</t>
+        </is>
+      </c>
+      <c r="E972" t="n">
+        <v>82</v>
+      </c>
+      <c r="F972" t="n">
+        <v>71</v>
+      </c>
+      <c r="G972" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I972" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J972" t="n">
+        <v>-21.14</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="E973" t="n">
+        <v>79</v>
+      </c>
+      <c r="F973" t="n">
+        <v>77</v>
+      </c>
+      <c r="G973" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I973" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J973" t="n">
+        <v>-20.36</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Frankston</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>Sandringham Sabres</t>
+        </is>
+      </c>
+      <c r="E974" t="n">
+        <v>81</v>
+      </c>
+      <c r="F974" t="n">
+        <v>100</v>
+      </c>
+      <c r="G974" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I974" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J974" t="n">
+        <v>-21.36</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>San German</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>Indios de Mayaguez</t>
+        </is>
+      </c>
+      <c r="E975" t="n">
+        <v>83</v>
+      </c>
+      <c r="F975" t="n">
+        <v>72</v>
+      </c>
+      <c r="G975" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I975" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J975" t="n">
+        <v>-20.64</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E976" t="n">
+        <v>95</v>
+      </c>
+      <c r="F976" t="n">
+        <v>96</v>
+      </c>
+      <c r="G976" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I976" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J976" t="n">
+        <v>-21.64</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Newcastle Falcons F</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>Norths Bears F</t>
+        </is>
+      </c>
+      <c r="E977" t="n">
+        <v>78</v>
+      </c>
+      <c r="F977" t="n">
+        <v>82</v>
+      </c>
+      <c r="G977" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I977" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J977" t="n">
+        <v>-22.64</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Vaqueros de Bayamon</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>Leones De Ponce</t>
+        </is>
+      </c>
+      <c r="E978" t="n">
+        <v>75</v>
+      </c>
+      <c r="F978" t="n">
+        <v>63</v>
+      </c>
+      <c r="G978" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I978" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J978" t="n">
+        <v>-22.09</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Newcastle Falcons</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>Norths Bears</t>
+        </is>
+      </c>
+      <c r="E979" t="n">
+        <v>71</v>
+      </c>
+      <c r="F979" t="n">
+        <v>79</v>
+      </c>
+      <c r="G979" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I979" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J979" t="n">
+        <v>-23.09</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Gipuzkoa</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>Tizona Burgos</t>
+        </is>
+      </c>
+      <c r="E980" t="n">
+        <v>82</v>
+      </c>
+      <c r="F980" t="n">
+        <v>79</v>
+      </c>
+      <c r="G980" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I980" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J980" t="n">
+        <v>-22.29</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Kavkasia</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>Kutaisi</t>
+        </is>
+      </c>
+      <c r="E981" t="n">
+        <v>82</v>
+      </c>
+      <c r="F981" t="n">
+        <v>90</v>
+      </c>
+      <c r="G981" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I981" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J981" t="n">
+        <v>-23.29</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Cangrejeros</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="E982" t="n">
+        <v>84</v>
+      </c>
+      <c r="F982" t="n">
+        <v>94</v>
+      </c>
+      <c r="G982" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I982" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J982" t="n">
+        <v>-24.29</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E983" t="n">
+        <v>77</v>
+      </c>
+      <c r="F983" t="n">
+        <v>88</v>
+      </c>
+      <c r="G983" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I983" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J983" t="n">
+        <v>-25.29</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Trefl Sopot</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>Szczecin</t>
+        </is>
+      </c>
+      <c r="E984" t="n">
+        <v>84</v>
+      </c>
+      <c r="F984" t="n">
+        <v>81</v>
+      </c>
+      <c r="G984" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I984" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J984" t="n">
+        <v>-24.68</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Manawatu Jets</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>Otago Nuggets</t>
+        </is>
+      </c>
+      <c r="E985" t="n">
+        <v>88</v>
+      </c>
+      <c r="F985" t="n">
+        <v>99</v>
+      </c>
+      <c r="G985" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I985" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J985" t="n">
+        <v>-25.68</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Municipal Chillan</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>Sergio Ceppi</t>
+        </is>
+      </c>
+      <c r="E986" t="n">
+        <v>55</v>
+      </c>
+      <c r="F986" t="n">
+        <v>58</v>
+      </c>
+      <c r="G986" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I986" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J986" t="n">
+        <v>-26.68</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Corinthians F</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>Blumenau F</t>
+        </is>
+      </c>
+      <c r="E987" t="n">
+        <v>59</v>
+      </c>
+      <c r="F987" t="n">
+        <v>63</v>
+      </c>
+      <c r="G987" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I987" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J987" t="n">
+        <v>-27.68</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Osos de Manati</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="E988" t="n">
+        <v>91</v>
+      </c>
+      <c r="F988" t="n">
+        <v>106</v>
+      </c>
+      <c r="G988" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I988" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J988" t="n">
+        <v>-28.68</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Kinwa</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>Can Oruro</t>
+        </is>
+      </c>
+      <c r="E989" t="n">
+        <v>93</v>
+      </c>
+      <c r="F989" t="n">
+        <v>96</v>
+      </c>
+      <c r="G989" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I989" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J989" t="n">
+        <v>-29.68</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Guaiqueries</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>Piratas de La Guaira</t>
+        </is>
+      </c>
+      <c r="E990" t="n">
+        <v>86</v>
+      </c>
+      <c r="F990" t="n">
+        <v>90</v>
+      </c>
+      <c r="G990" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I990" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J990" t="n">
+        <v>-30.68</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>Brillantes</t>
+        </is>
+      </c>
+      <c r="E991" t="n">
+        <v>83</v>
+      </c>
+      <c r="F991" t="n">
+        <v>76</v>
+      </c>
+      <c r="G991" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I991" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J991" t="n">
+        <v>-29.36</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>Frontinos</t>
+        </is>
+      </c>
+      <c r="E992" t="n">
+        <v>72</v>
+      </c>
+      <c r="F992" t="n">
+        <v>47</v>
+      </c>
+      <c r="G992" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I992" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J992" t="n">
+        <v>-28.38</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Ipswich Force F</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>Mackay Meteorettes F</t>
+        </is>
+      </c>
+      <c r="E993" t="n">
+        <v>84</v>
+      </c>
+      <c r="F993" t="n">
+        <v>101</v>
+      </c>
+      <c r="G993" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I993" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J993" t="n">
+        <v>-29.38</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Casey Cavaliers</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>Nunawading</t>
+        </is>
+      </c>
+      <c r="E994" t="n">
+        <v>77</v>
+      </c>
+      <c r="F994" t="n">
+        <v>92</v>
+      </c>
+      <c r="G994" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I994" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J994" t="n">
+        <v>-30.38</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Dandenong Rangers F</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>Frankston F</t>
+        </is>
+      </c>
+      <c r="E995" t="n">
+        <v>79</v>
+      </c>
+      <c r="F995" t="n">
+        <v>89</v>
+      </c>
+      <c r="G995" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I995" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J995" t="n">
+        <v>-31.38</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>East Perth Eagles</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>Joondalup Wolves</t>
+        </is>
+      </c>
+      <c r="E996" t="n">
+        <v>94</v>
+      </c>
+      <c r="F996" t="n">
+        <v>90</v>
+      </c>
+      <c r="G996" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I996" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J996" t="n">
+        <v>-30.43</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Chicago Sky F</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>Atlanta Dream F</t>
+        </is>
+      </c>
+      <c r="E997" t="n">
+        <v>80</v>
+      </c>
+      <c r="F997" t="n">
+        <v>89</v>
+      </c>
+      <c r="G997" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I997" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J997" t="n">
+        <v>-31.43</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E998" t="n">
+        <v>70</v>
+      </c>
+      <c r="F998" t="n">
+        <v>101</v>
+      </c>
+      <c r="G998" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I998" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J998" t="n">
+        <v>-32.43</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Municipal Chillan</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>Truenos De Talca</t>
+        </is>
+      </c>
+      <c r="E999" t="n">
+        <v>54</v>
+      </c>
+      <c r="F999" t="n">
+        <v>72</v>
+      </c>
+      <c r="G999" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I999" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J999" t="n">
+        <v>-33.43</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E1000" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1000" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>-32.82</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Mandurah Magic</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>East Perth Eagles</t>
+        </is>
+      </c>
+      <c r="E1001" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1001" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>-33.82</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Perry Lakes Hawks</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>Goldfields Giants</t>
+        </is>
+      </c>
+      <c r="E1002" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1002" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>-34.82</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Lietkabelis</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>BC Wolves</t>
+        </is>
+      </c>
+      <c r="E1003" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1003" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>-34.27</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Centauros</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>Heroes de Falcon</t>
+        </is>
+      </c>
+      <c r="E1004" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1004" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>-35.27</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Trieste</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>Cantu</t>
+        </is>
+      </c>
+      <c r="E1005" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1005" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>-34.6</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Washington Mystics F</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>Chicago Sky F</t>
+        </is>
+      </c>
+      <c r="E1006" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1006" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>-33.45</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Aguada</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="E1007" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1007" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>-32.78</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="E1008" t="n">
+        <v>111</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1008" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>-32.03</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Corinthians F</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>Ituano F</t>
+        </is>
+      </c>
+      <c r="E1009" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1009" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>-33.03</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Hangtuah</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>Rajawali Medan</t>
+        </is>
+      </c>
+      <c r="E1010" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1010" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>-31.88</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="E1011" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1011" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>-30.29</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Leones Quilpue</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>U. De Concepcion</t>
+        </is>
+      </c>
+      <c r="E1012" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1012" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>-29.73</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Bay Hawks</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>Nelson Giants</t>
+        </is>
+      </c>
+      <c r="E1013" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1013" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>-30.73</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Sturt Sabres F</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>Norwood Flames F</t>
+        </is>
+      </c>
+      <c r="E1014" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1014" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>-30.14</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Northside Wizards</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>North Gold Coast Seahawks</t>
+        </is>
+      </c>
+      <c r="E1015" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1015" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>-29.45</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Mandurah Magic</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>Warwick Senators</t>
+        </is>
+      </c>
+      <c r="E1016" t="n">
+        <v>107</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1016" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>-28.54</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Cimarrones del Choco</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>Corsarios Cartagena</t>
+        </is>
+      </c>
+      <c r="E1017" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1017" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>-27.84</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>San German</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="E1018" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1018" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>-28.84</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Toros del Valle</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>Titanes de Barranquilla</t>
+        </is>
+      </c>
+      <c r="E1019" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1019" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>-27.65</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Guaiqueries</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>Centauros</t>
+        </is>
+      </c>
+      <c r="E1020" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1020" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Gaiteros del Zulia</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>Panteras</t>
+        </is>
+      </c>
+      <c r="E1021" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1021" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>-26.43</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Rajawali Medan</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>Bumi Borneo</t>
+        </is>
+      </c>
+      <c r="E1022" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1022" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>-27.43</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Guaiqueries</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>Heroes de Falcon</t>
+        </is>
+      </c>
+      <c r="E1023" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1023" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>-26.86</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Santo André F</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>Campinas F</t>
+        </is>
+      </c>
+      <c r="E1024" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1024" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>-26.21</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="E1025" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1025" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>-25.52</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="E1026" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1026" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>-24.7</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Rayos de Hermosillo</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>Astros</t>
+        </is>
+      </c>
+      <c r="E1027" t="n">
+        <v>107</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1027" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>-23.72</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Capitanes De Arecibo</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="E1028" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1028" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>-22.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/back_home_v3.xlsx
+++ b/acp_metodos/excel_files/back_home_v3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1028"/>
+  <dimension ref="A1:J1053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39510,6 +39510,956 @@
         <v>-22.96</v>
       </c>
     </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Piratas de Bogota</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>Toros del Valle</t>
+        </is>
+      </c>
+      <c r="E1029" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1029" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>-22.19</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>Corsarios Cartagena</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>Motilones del Norte</t>
+        </is>
+      </c>
+      <c r="E1030" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1030" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>-23.19</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Leones De Ponce</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>Cangrejeros</t>
+        </is>
+      </c>
+      <c r="E1031" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1031" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>-22.04</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Dep. San Jose</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="E1032" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1032" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>-21.46</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Eltham</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>Ballarat</t>
+        </is>
+      </c>
+      <c r="E1033" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1033" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>-20.49000000000001</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E1034" t="n">
+        <v>114</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>119</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1034" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>-21.49000000000001</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E1035" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1035" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>-20.65000000000001</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Sutherland</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>Bankstown Bruins</t>
+        </is>
+      </c>
+      <c r="E1036" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1036" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>-21.65000000000001</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Minnesota Lynx F</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>Indiana Fever F</t>
+        </is>
+      </c>
+      <c r="E1037" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1037" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>-22.65000000000001</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E1038" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1038" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>-21.96</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E1039" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1039" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>-20.97000000000001</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E1040" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1040" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>-21.97000000000001</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E1041" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1041" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>-22.97000000000001</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Dallas Wings F</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>Indiana Fever F</t>
+        </is>
+      </c>
+      <c r="E1042" t="n">
+        <v>101</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1042" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>-21.33000000000001</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E1043" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1043" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>-19.54000000000001</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E1044" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1044" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>-18.6</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Sandringham F</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>Waverley F</t>
+        </is>
+      </c>
+      <c r="E1045" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1045" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>-19.6</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E1046" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1046" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>-20.6</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E1047" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1047" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>-19.87</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Pelita Jaya</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>Satria Muda</t>
+        </is>
+      </c>
+      <c r="E1048" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1048" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>-18.83000000000001</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Keilor Thunder F</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>Ballarat F</t>
+        </is>
+      </c>
+      <c r="E1049" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1049" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>-17.64</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Norths Bears F</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>Sutherland F</t>
+        </is>
+      </c>
+      <c r="E1050" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1050" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>-18.64</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Leones De Ponce</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>Criollos de Caguas</t>
+        </is>
+      </c>
+      <c r="E1051" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1051" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>-18.03</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="2" t="n">
+        <v>45514</v>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Ballarat</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>Eltham</t>
+        </is>
+      </c>
+      <c r="E1052" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1052" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>-19.03</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="2" t="n">
+        <v>45514</v>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Saigon Heat</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>Nhatrang Dolphins</t>
+        </is>
+      </c>
+      <c r="E1053" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1053" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>-18.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
